--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_6_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_6_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1948783.566716413</v>
+        <v>1952334.126503807</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>840694.9721069174</v>
+        <v>840694.9721069182</v>
       </c>
     </row>
     <row r="9">
@@ -673,10 +673,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>87.5223228861279</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>214.1092459873479</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -791,7 +791,7 @@
         <v>156.5912426325231</v>
       </c>
       <c r="T3" t="n">
-        <v>196.8897623984489</v>
+        <v>196.8897623984484</v>
       </c>
       <c r="U3" t="n">
         <v>225.8879277888686</v>
@@ -831,13 +831,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>163.1423514055438</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>6.971462563748611</v>
       </c>
       <c r="J4" t="n">
         <v>45.199959188537</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>28.92900240760912</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>131.101966684368</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1074,10 +1074,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>124.2196940949804</v>
+        <v>6.908481403325515</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1189,13 +1189,13 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>48.26252137233833</v>
       </c>
       <c r="V8" t="n">
-        <v>325.2557485598865</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1387,10 +1387,10 @@
         <v>411.0203559212046</v>
       </c>
       <c r="H11" t="n">
-        <v>295.6178616169271</v>
+        <v>295.6178616169272</v>
       </c>
       <c r="I11" t="n">
-        <v>45.37937317040306</v>
+        <v>45.37937317040308</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>111.4352990145557</v>
+        <v>111.4352990145559</v>
       </c>
       <c r="T11" t="n">
-        <v>204.3497241367008</v>
+        <v>204.3497241367009</v>
       </c>
       <c r="U11" t="n">
         <v>251.0030623803221</v>
@@ -1466,10 +1466,10 @@
         <v>135.0522410113261</v>
       </c>
       <c r="H12" t="n">
-        <v>90.10654034855865</v>
+        <v>90.10654034855867</v>
       </c>
       <c r="I12" t="n">
-        <v>10.50839692030165</v>
+        <v>10.50839692030166</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1502,7 +1502,7 @@
         <v>129.1237215282626</v>
       </c>
       <c r="T12" t="n">
-        <v>190.9292778896377</v>
+        <v>190.9292778896378</v>
       </c>
       <c r="U12" t="n">
         <v>225.7906402288772</v>
@@ -1533,19 +1533,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>139.4368777712069</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H13" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>219.7379838856521</v>
@@ -1587,13 +1587,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>181.5357429531207</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1624,10 +1624,10 @@
         <v>411.0203559212046</v>
       </c>
       <c r="H14" t="n">
-        <v>295.617861616927</v>
+        <v>295.6178616169272</v>
       </c>
       <c r="I14" t="n">
-        <v>45.37937317040306</v>
+        <v>45.37937317040289</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1703,10 +1703,10 @@
         <v>135.0522410113261</v>
       </c>
       <c r="H15" t="n">
-        <v>90.10654034855865</v>
+        <v>90.10654034855867</v>
       </c>
       <c r="I15" t="n">
-        <v>10.50839692030165</v>
+        <v>10.50839692030166</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1739,7 +1739,7 @@
         <v>129.1237215282626</v>
       </c>
       <c r="T15" t="n">
-        <v>190.9292778896377</v>
+        <v>190.9292778896378</v>
       </c>
       <c r="U15" t="n">
         <v>225.7906402288772</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>28.81869974802302</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1779,10 +1779,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>90.92144028388265</v>
+        <v>27.10637519976233</v>
       </c>
       <c r="S16" t="n">
         <v>190.5400452173542</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1861,10 +1861,10 @@
         <v>411.0203559212046</v>
       </c>
       <c r="H17" t="n">
-        <v>295.6178616169271</v>
+        <v>295.6178616169272</v>
       </c>
       <c r="I17" t="n">
-        <v>45.37937317040306</v>
+        <v>45.37937317040308</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1940,10 +1940,10 @@
         <v>135.0522410113261</v>
       </c>
       <c r="H18" t="n">
-        <v>90.10654034855865</v>
+        <v>90.10654034855867</v>
       </c>
       <c r="I18" t="n">
-        <v>10.50839692030165</v>
+        <v>10.50839692030166</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1976,7 +1976,7 @@
         <v>129.1237215282626</v>
       </c>
       <c r="T18" t="n">
-        <v>190.9292778896377</v>
+        <v>190.9292778896378</v>
       </c>
       <c r="U18" t="n">
         <v>225.7906402288772</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>28.81869974802302</v>
+        <v>119.740140031905</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>90.92144028388265</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>190.5400452173542</v>
@@ -2098,10 +2098,10 @@
         <v>411.0203559212046</v>
       </c>
       <c r="H20" t="n">
-        <v>295.6178616169271</v>
+        <v>295.6178616169272</v>
       </c>
       <c r="I20" t="n">
-        <v>45.37937317040306</v>
+        <v>45.37937317040308</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>111.4352990145557</v>
+        <v>111.4352990145559</v>
       </c>
       <c r="T20" t="n">
         <v>204.3497241367009</v>
@@ -2177,10 +2177,10 @@
         <v>135.0522410113261</v>
       </c>
       <c r="H21" t="n">
-        <v>90.10654034855865</v>
+        <v>90.10654034855867</v>
       </c>
       <c r="I21" t="n">
-        <v>10.50839692030165</v>
+        <v>10.50839692030166</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2213,7 +2213,7 @@
         <v>129.1237215282626</v>
       </c>
       <c r="T21" t="n">
-        <v>190.9292778896377</v>
+        <v>190.9292778896378</v>
       </c>
       <c r="U21" t="n">
         <v>225.7906402288772</v>
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>107.6454502059916</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>90.92144028388266</v>
       </c>
       <c r="S22" t="n">
         <v>190.5400452173542</v>
@@ -2295,10 +2295,10 @@
         <v>219.7379838856521</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V22" t="n">
-        <v>157.0657481374402</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2335,10 +2335,10 @@
         <v>411.0203559212046</v>
       </c>
       <c r="H23" t="n">
-        <v>295.6178616169271</v>
+        <v>295.6178616169272</v>
       </c>
       <c r="I23" t="n">
-        <v>45.37937317040306</v>
+        <v>45.37937317040308</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2414,10 +2414,10 @@
         <v>135.0522410113261</v>
       </c>
       <c r="H24" t="n">
-        <v>90.10654034855865</v>
+        <v>90.10654034855867</v>
       </c>
       <c r="I24" t="n">
-        <v>10.50839692030165</v>
+        <v>10.50839692030166</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2450,7 +2450,7 @@
         <v>129.1237215282626</v>
       </c>
       <c r="T24" t="n">
-        <v>190.9292778896377</v>
+        <v>190.9292778896378</v>
       </c>
       <c r="U24" t="n">
         <v>225.7906402288772</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>97.68290229956054</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2535,16 +2535,16 @@
         <v>286.2142514133935</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>226.4311581865586</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>112.2213359482861</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2572,10 +2572,10 @@
         <v>411.0203559212046</v>
       </c>
       <c r="H26" t="n">
-        <v>295.6178616169271</v>
+        <v>295.6178616169272</v>
       </c>
       <c r="I26" t="n">
-        <v>45.37937317040306</v>
+        <v>45.37937317040289</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>111.4352990145557</v>
       </c>
       <c r="T26" t="n">
-        <v>204.3497241367008</v>
+        <v>204.3497241367009</v>
       </c>
       <c r="U26" t="n">
         <v>251.0030623803221</v>
@@ -2651,10 +2651,10 @@
         <v>135.0522410113261</v>
       </c>
       <c r="H27" t="n">
-        <v>90.10654034855865</v>
+        <v>90.10654034855867</v>
       </c>
       <c r="I27" t="n">
-        <v>10.50839692030165</v>
+        <v>10.50839692030166</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2687,7 +2687,7 @@
         <v>129.1237215282626</v>
       </c>
       <c r="T27" t="n">
-        <v>190.9292778896377</v>
+        <v>190.9292778896378</v>
       </c>
       <c r="U27" t="n">
         <v>225.7906402288772</v>
@@ -2718,22 +2718,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>97.68290229956055</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>90.92144028388266</v>
       </c>
       <c r="S28" t="n">
-        <v>130.4482050673223</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2142514133935</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>173.9544946238393</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2809,10 +2809,10 @@
         <v>411.0203559212046</v>
       </c>
       <c r="H29" t="n">
-        <v>295.6178616169271</v>
+        <v>295.6178616169272</v>
       </c>
       <c r="I29" t="n">
-        <v>45.37937317040306</v>
+        <v>45.37937317040308</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2888,10 +2888,10 @@
         <v>135.0522410113261</v>
       </c>
       <c r="H30" t="n">
-        <v>90.10654034855865</v>
+        <v>90.10654034855867</v>
       </c>
       <c r="I30" t="n">
-        <v>10.50839692030165</v>
+        <v>10.50839692030166</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2924,7 +2924,7 @@
         <v>129.1237215282626</v>
       </c>
       <c r="T30" t="n">
-        <v>190.9292778896377</v>
+        <v>190.9292778896378</v>
       </c>
       <c r="U30" t="n">
         <v>225.7906402288772</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>28.81869974802302</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>90.92144028388265</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>190.5400452173542</v>
+        <v>130.4482050673217</v>
       </c>
       <c r="T31" t="n">
         <v>219.7379838856521</v>
@@ -3046,10 +3046,10 @@
         <v>411.0203559212046</v>
       </c>
       <c r="H32" t="n">
-        <v>295.6178616169271</v>
+        <v>295.6178616169272</v>
       </c>
       <c r="I32" t="n">
-        <v>45.37937317040306</v>
+        <v>45.37937317040308</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3125,10 +3125,10 @@
         <v>135.0522410113261</v>
       </c>
       <c r="H33" t="n">
-        <v>90.10654034855865</v>
+        <v>90.10654034855867</v>
       </c>
       <c r="I33" t="n">
-        <v>10.50839692030165</v>
+        <v>10.50839692030166</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3161,7 +3161,7 @@
         <v>129.1237215282626</v>
       </c>
       <c r="T33" t="n">
-        <v>190.9292778896377</v>
+        <v>190.9292778896378</v>
       </c>
       <c r="U33" t="n">
         <v>225.7906402288772</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>119.740140031905</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>130.4482050673223</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T34" t="n">
         <v>219.7379838856521</v>
@@ -3280,13 +3280,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.0203559212046</v>
+        <v>411.0203559212044</v>
       </c>
       <c r="H35" t="n">
-        <v>295.6178616169271</v>
+        <v>295.6178616169272</v>
       </c>
       <c r="I35" t="n">
-        <v>45.37937317040306</v>
+        <v>45.37937317040308</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3362,10 +3362,10 @@
         <v>135.0522410113261</v>
       </c>
       <c r="H36" t="n">
-        <v>90.10654034855865</v>
+        <v>90.10654034855867</v>
       </c>
       <c r="I36" t="n">
-        <v>10.50839692030165</v>
+        <v>10.50839692030166</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3398,7 +3398,7 @@
         <v>129.1237215282626</v>
       </c>
       <c r="T36" t="n">
-        <v>190.9292778896377</v>
+        <v>190.9292778896378</v>
       </c>
       <c r="U36" t="n">
         <v>225.7906402288772</v>
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>34.32389483613417</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2142514133935</v>
+        <v>11.5012384369331</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3511,7 +3511,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3520,10 +3520,10 @@
         <v>411.0203559212046</v>
       </c>
       <c r="H38" t="n">
-        <v>295.6178616169271</v>
+        <v>295.6178616169272</v>
       </c>
       <c r="I38" t="n">
-        <v>45.37937317040306</v>
+        <v>45.37937317040308</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3562,7 +3562,7 @@
         <v>251.0030623803221</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3599,10 +3599,10 @@
         <v>135.0522410113261</v>
       </c>
       <c r="H39" t="n">
-        <v>90.10654034855865</v>
+        <v>90.10654034855867</v>
       </c>
       <c r="I39" t="n">
-        <v>10.50839692030165</v>
+        <v>10.50839692030166</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3635,7 +3635,7 @@
         <v>129.1237215282626</v>
       </c>
       <c r="T39" t="n">
-        <v>190.9292778896377</v>
+        <v>190.9292778896378</v>
       </c>
       <c r="U39" t="n">
         <v>225.7906402288772</v>
@@ -3663,22 +3663,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>90.92144028388265</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>190.5400452173542</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U40" t="n">
-        <v>62.46600362563105</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>158.4928132020625</v>
       </c>
     </row>
     <row r="41">
@@ -3757,10 +3757,10 @@
         <v>411.0203559212046</v>
       </c>
       <c r="H41" t="n">
-        <v>295.6178616169271</v>
+        <v>295.6178616169272</v>
       </c>
       <c r="I41" t="n">
-        <v>45.37937317040306</v>
+        <v>45.37937317040308</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3836,10 +3836,10 @@
         <v>135.0522410113261</v>
       </c>
       <c r="H42" t="n">
-        <v>90.10654034855865</v>
+        <v>90.10654034855867</v>
       </c>
       <c r="I42" t="n">
-        <v>10.50839692030165</v>
+        <v>10.50839692030166</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3872,7 +3872,7 @@
         <v>129.1237215282626</v>
       </c>
       <c r="T42" t="n">
-        <v>190.9292778896377</v>
+        <v>190.9292778896378</v>
       </c>
       <c r="U42" t="n">
         <v>225.7906402288772</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>119.7401400319056</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.7379838856521</v>
+        <v>34.32389483613342</v>
       </c>
       <c r="U43" t="n">
         <v>286.2142514133935</v>
@@ -3994,10 +3994,10 @@
         <v>411.0203559212046</v>
       </c>
       <c r="H44" t="n">
-        <v>295.6178616169271</v>
+        <v>295.6178616169272</v>
       </c>
       <c r="I44" t="n">
-        <v>45.37937317040306</v>
+        <v>45.37937317040308</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>111.4352990145557</v>
+        <v>111.4352990145559</v>
       </c>
       <c r="T44" t="n">
         <v>204.3497241367009</v>
@@ -4073,10 +4073,10 @@
         <v>135.0522410113261</v>
       </c>
       <c r="H45" t="n">
-        <v>90.10654034855865</v>
+        <v>90.10654034855867</v>
       </c>
       <c r="I45" t="n">
-        <v>10.50839692030165</v>
+        <v>10.50839692030166</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4109,7 +4109,7 @@
         <v>129.1237215282626</v>
       </c>
       <c r="T45" t="n">
-        <v>190.9292778896377</v>
+        <v>190.9292778896378</v>
       </c>
       <c r="U45" t="n">
         <v>225.7906402288772</v>
@@ -4134,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>46.46978271449999</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>190.5400452173542</v>
+        <v>130.4482050673217</v>
       </c>
       <c r="T46" t="n">
         <v>219.7379838856521</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1995.909162857192</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="C2" t="n">
-        <v>1626.94664591678</v>
+        <v>1624.583944532628</v>
       </c>
       <c r="D2" t="n">
-        <v>1268.68094731003</v>
+        <v>1266.318245925878</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>880.5299933276337</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>469.5440885380262</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4360,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2249.6709482191</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>1995.909162857192</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1995.909162857192</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W2" t="n">
-        <v>1995.909162857192</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X2" t="n">
-        <v>1995.909162857192</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="Y2" t="n">
-        <v>1995.909162857192</v>
+        <v>1993.54646147304</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4409,25 +4409,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4439,13 +4439,13 @@
         <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4479,10 +4479,10 @@
         <v>264.3897601982238</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323012</v>
+        <v>264.3897601982238</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>106.641387630754</v>
       </c>
       <c r="I4" t="n">
         <v>99.59950625323012</v>
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>632.3182666762915</v>
+        <v>863.1126181035243</v>
       </c>
       <c r="C5" t="n">
-        <v>632.3182666762915</v>
+        <v>494.1501011631125</v>
       </c>
       <c r="D5" t="n">
-        <v>632.3182666762915</v>
+        <v>494.1501011631125</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762915</v>
+        <v>494.1501011631125</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>83.16419637350498</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4570,16 +4570,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2333.516684888777</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2079.754899526868</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>1748.692012183297</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W5" t="n">
-        <v>1395.923356913183</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X5" t="n">
-        <v>1022.457598652103</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y5" t="n">
-        <v>632.3182666762915</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424003</v>
@@ -4646,22 +4646,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4685,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="E7" t="n">
-        <v>698.7120650600561</v>
+        <v>580.2158906240411</v>
       </c>
       <c r="F7" t="n">
-        <v>551.8221175621458</v>
+        <v>433.3259431261307</v>
       </c>
       <c r="G7" t="n">
-        <v>382.8223173004782</v>
+        <v>264.3261428644631</v>
       </c>
       <c r="H7" t="n">
-        <v>225.0739447330083</v>
+        <v>106.5777702969933</v>
       </c>
       <c r="I7" t="n">
         <v>99.59950625323012</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>1187.828354776384</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
         <v>67.86638588177355</v>
@@ -4804,7 +4804,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733127</v>
@@ -4837,19 +4837,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2648.399069430002</v>
       </c>
       <c r="V8" t="n">
-        <v>2368.607930856721</v>
+        <v>2317.336182086431</v>
       </c>
       <c r="W8" t="n">
-        <v>2368.607930856721</v>
+        <v>1964.567526816317</v>
       </c>
       <c r="X8" t="n">
-        <v>2368.607930856721</v>
+        <v>1964.567526816317</v>
       </c>
       <c r="Y8" t="n">
-        <v>1978.468598880909</v>
+        <v>1574.428194840505</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4889,37 +4889,37 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -5029,7 +5029,7 @@
         <v>1266.317301993267</v>
       </c>
       <c r="F11" t="n">
-        <v>855.3313972036598</v>
+        <v>855.3313972036599</v>
       </c>
       <c r="G11" t="n">
         <v>440.1593205155743</v>
@@ -5041,16 +5041,16 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J11" t="n">
-        <v>443.7150397139486</v>
+        <v>443.7150397139484</v>
       </c>
       <c r="K11" t="n">
         <v>1086.017693327009</v>
       </c>
       <c r="L11" t="n">
-        <v>1521.642956557056</v>
+        <v>1611.438070502395</v>
       </c>
       <c r="M11" t="n">
-        <v>2038.02943534674</v>
+        <v>2127.824549292078</v>
       </c>
       <c r="N11" t="n">
         <v>2657.180509552854</v>
@@ -5105,13 +5105,13 @@
         <v>639.5373370222824</v>
       </c>
       <c r="E12" t="n">
-        <v>480.2998820168268</v>
+        <v>480.2998820168269</v>
       </c>
       <c r="F12" t="n">
-        <v>333.7653240437118</v>
+        <v>333.7653240437119</v>
       </c>
       <c r="G12" t="n">
-        <v>197.3489189817663</v>
+        <v>197.3489189817664</v>
       </c>
       <c r="H12" t="n">
         <v>106.3322115589798</v>
@@ -5120,25 +5120,25 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J12" t="n">
-        <v>184.4590143936093</v>
+        <v>258.3150913629246</v>
       </c>
       <c r="K12" t="n">
-        <v>414.2869325418659</v>
+        <v>488.1430095111811</v>
       </c>
       <c r="L12" t="n">
-        <v>769.6414721740672</v>
+        <v>843.4975491433823</v>
       </c>
       <c r="M12" t="n">
-        <v>1203.680327106303</v>
+        <v>1277.536404075618</v>
       </c>
       <c r="N12" t="n">
-        <v>1663.615543921421</v>
+        <v>1737.471620890736</v>
       </c>
       <c r="O12" t="n">
-        <v>2062.14661647041</v>
+        <v>2136.002693439725</v>
       </c>
       <c r="P12" t="n">
-        <v>2362.669871067691</v>
+        <v>2436.525948037006</v>
       </c>
       <c r="Q12" t="n">
         <v>2587.498588679581</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>552.1136961368557</v>
+        <v>877.3210582940426</v>
       </c>
       <c r="C13" t="n">
-        <v>383.1775132089488</v>
+        <v>708.3848753661357</v>
       </c>
       <c r="D13" t="n">
-        <v>242.3321821269216</v>
+        <v>558.2682359537999</v>
       </c>
       <c r="E13" t="n">
-        <v>242.3321821269216</v>
+        <v>410.3551423714068</v>
       </c>
       <c r="F13" t="n">
-        <v>242.3321821269216</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="G13" t="n">
-        <v>242.3321821269216</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H13" t="n">
         <v>95.71766921524075</v>
@@ -5199,16 +5199,16 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J13" t="n">
-        <v>137.7436613720289</v>
+        <v>137.7436613720288</v>
       </c>
       <c r="K13" t="n">
-        <v>336.642113073884</v>
+        <v>336.6421130738839</v>
       </c>
       <c r="L13" t="n">
-        <v>646.6900875150417</v>
+        <v>646.6900875150416</v>
       </c>
       <c r="M13" t="n">
-        <v>983.98132772395</v>
+        <v>983.9813277239498</v>
       </c>
       <c r="N13" t="n">
         <v>1318.687152545534</v>
@@ -5217,7 +5217,7 @@
         <v>1611.825859961355</v>
       </c>
       <c r="P13" t="n">
-        <v>1839.13598320328</v>
+        <v>1839.135983203279</v>
       </c>
       <c r="Q13" t="n">
         <v>1913.078649972671</v>
@@ -5226,25 +5226,25 @@
         <v>1913.078649972671</v>
       </c>
       <c r="S13" t="n">
-        <v>1720.61395783393</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.656398353473</v>
+        <v>1691.121090492214</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.656398353473</v>
+        <v>1691.121090492214</v>
       </c>
       <c r="V13" t="n">
-        <v>1243.971910147586</v>
+        <v>1507.75165316583</v>
       </c>
       <c r="W13" t="n">
-        <v>954.5547401106255</v>
+        <v>1507.75165316583</v>
       </c>
       <c r="X13" t="n">
-        <v>954.5547401106255</v>
+        <v>1279.762102267812</v>
       </c>
       <c r="Y13" t="n">
-        <v>733.7621609670954</v>
+        <v>1058.969523124282</v>
       </c>
     </row>
     <row r="14">
@@ -5272,13 +5272,13 @@
         <v>440.1593205155742</v>
       </c>
       <c r="H14" t="n">
-        <v>141.5554198924156</v>
+        <v>141.5554198924154</v>
       </c>
       <c r="I14" t="n">
         <v>95.71766921524075</v>
       </c>
       <c r="J14" t="n">
-        <v>443.7150397139486</v>
+        <v>443.7150397139484</v>
       </c>
       <c r="K14" t="n">
         <v>1086.017693327009</v>
@@ -5287,7 +5287,7 @@
         <v>1935.127558962002</v>
       </c>
       <c r="M14" t="n">
-        <v>2451.514037751686</v>
+        <v>2451.514037751685</v>
       </c>
       <c r="N14" t="n">
         <v>3185.953071395928</v>
@@ -5342,13 +5342,13 @@
         <v>639.5373370222824</v>
       </c>
       <c r="E15" t="n">
-        <v>480.2998820168268</v>
+        <v>480.2998820168269</v>
       </c>
       <c r="F15" t="n">
-        <v>333.7653240437118</v>
+        <v>333.7653240437119</v>
       </c>
       <c r="G15" t="n">
-        <v>197.3489189817663</v>
+        <v>197.3489189817664</v>
       </c>
       <c r="H15" t="n">
         <v>106.3322115589798</v>
@@ -5357,22 +5357,22 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J15" t="n">
-        <v>258.3150913629237</v>
+        <v>258.3150913629246</v>
       </c>
       <c r="K15" t="n">
-        <v>488.1430095111803</v>
+        <v>488.1430095111811</v>
       </c>
       <c r="L15" t="n">
-        <v>843.4975491433815</v>
+        <v>843.4975491433823</v>
       </c>
       <c r="M15" t="n">
-        <v>1277.536404075617</v>
+        <v>1277.536404075618</v>
       </c>
       <c r="N15" t="n">
         <v>1737.471620890736</v>
       </c>
       <c r="O15" t="n">
-        <v>2136.002693439724</v>
+        <v>2136.002693439725</v>
       </c>
       <c r="P15" t="n">
         <v>2436.525948037006</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>95.71766921524075</v>
+        <v>410.0797077851773</v>
       </c>
       <c r="C16" t="n">
-        <v>95.71766921524075</v>
+        <v>410.0797077851773</v>
       </c>
       <c r="D16" t="n">
-        <v>95.71766921524075</v>
+        <v>410.0797077851773</v>
       </c>
       <c r="E16" t="n">
-        <v>95.71766921524075</v>
+        <v>410.0797077851773</v>
       </c>
       <c r="F16" t="n">
-        <v>95.71766921524075</v>
+        <v>410.0797077851773</v>
       </c>
       <c r="G16" t="n">
-        <v>95.71766921524075</v>
+        <v>242.3321821269216</v>
       </c>
       <c r="H16" t="n">
         <v>95.71766921524075</v>
@@ -5436,16 +5436,16 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J16" t="n">
-        <v>137.7436613720289</v>
+        <v>137.7436613720288</v>
       </c>
       <c r="K16" t="n">
-        <v>336.642113073884</v>
+        <v>336.6421130738839</v>
       </c>
       <c r="L16" t="n">
-        <v>646.6900875150417</v>
+        <v>646.6900875150416</v>
       </c>
       <c r="M16" t="n">
-        <v>983.98132772395</v>
+        <v>983.9813277239498</v>
       </c>
       <c r="N16" t="n">
         <v>1318.687152545534</v>
@@ -5454,34 +5454,34 @@
         <v>1611.825859961355</v>
       </c>
       <c r="P16" t="n">
-        <v>1839.13598320328</v>
+        <v>1839.135983203279</v>
       </c>
       <c r="Q16" t="n">
         <v>1913.078649972671</v>
       </c>
       <c r="R16" t="n">
-        <v>1821.238811302083</v>
+        <v>1885.698473003214</v>
       </c>
       <c r="S16" t="n">
-        <v>1628.774119163341</v>
+        <v>1693.233780864472</v>
       </c>
       <c r="T16" t="n">
-        <v>1406.816559682885</v>
+        <v>1471.276221384016</v>
       </c>
       <c r="U16" t="n">
-        <v>1117.711255224911</v>
+        <v>1182.170916926042</v>
       </c>
       <c r="V16" t="n">
-        <v>863.0267670190245</v>
+        <v>927.4864287201553</v>
       </c>
       <c r="W16" t="n">
-        <v>573.609596982064</v>
+        <v>638.0692586831947</v>
       </c>
       <c r="X16" t="n">
-        <v>345.6200460840466</v>
+        <v>410.0797077851773</v>
       </c>
       <c r="Y16" t="n">
-        <v>124.8274669405165</v>
+        <v>410.0797077851773</v>
       </c>
     </row>
     <row r="17">
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2379.333770138674</v>
+        <v>2379.333770138673</v>
       </c>
       <c r="C17" t="n">
-        <v>2010.371253198262</v>
+        <v>2010.371253198261</v>
       </c>
       <c r="D17" t="n">
-        <v>1652.105554591512</v>
+        <v>1652.105554591511</v>
       </c>
       <c r="E17" t="n">
         <v>1266.317301993267</v>
@@ -5515,28 +5515,28 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J17" t="n">
-        <v>443.7150397139486</v>
+        <v>276.3093906935954</v>
       </c>
       <c r="K17" t="n">
-        <v>790.1010928348239</v>
+        <v>597.708085861203</v>
       </c>
       <c r="L17" t="n">
-        <v>1639.210958469817</v>
+        <v>1327.278034693952</v>
       </c>
       <c r="M17" t="n">
-        <v>2600.615835417405</v>
+        <v>2288.68291164154</v>
       </c>
       <c r="N17" t="n">
-        <v>3562.945250846045</v>
+        <v>3251.012327070181</v>
       </c>
       <c r="O17" t="n">
-        <v>4049.465812105077</v>
+        <v>4114.52506777933</v>
       </c>
       <c r="P17" t="n">
-        <v>4430.198854229707</v>
+        <v>4495.258109903959</v>
       </c>
       <c r="Q17" t="n">
-        <v>4667.940766252041</v>
+        <v>4733.000021926293</v>
       </c>
       <c r="R17" t="n">
         <v>4785.883460762037</v>
@@ -5548,19 +5548,19 @@
         <v>4466.908689902182</v>
       </c>
       <c r="U17" t="n">
-        <v>4213.370243053372</v>
+        <v>4213.370243053371</v>
       </c>
       <c r="V17" t="n">
         <v>3882.307355709801</v>
       </c>
       <c r="W17" t="n">
-        <v>3529.538700439687</v>
+        <v>3529.538700439686</v>
       </c>
       <c r="X17" t="n">
-        <v>3156.072942178607</v>
+        <v>3156.072942178606</v>
       </c>
       <c r="Y17" t="n">
-        <v>2765.933610202796</v>
+        <v>2765.933610202795</v>
       </c>
     </row>
     <row r="18">
@@ -5579,13 +5579,13 @@
         <v>639.5373370222824</v>
       </c>
       <c r="E18" t="n">
-        <v>480.2998820168268</v>
+        <v>480.2998820168269</v>
       </c>
       <c r="F18" t="n">
-        <v>333.7653240437118</v>
+        <v>333.7653240437119</v>
       </c>
       <c r="G18" t="n">
-        <v>197.3489189817663</v>
+        <v>197.3489189817664</v>
       </c>
       <c r="H18" t="n">
         <v>106.3322115589798</v>
@@ -5594,22 +5594,22 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J18" t="n">
-        <v>258.3150913629237</v>
+        <v>258.3150913629246</v>
       </c>
       <c r="K18" t="n">
-        <v>488.1430095111803</v>
+        <v>488.1430095111811</v>
       </c>
       <c r="L18" t="n">
-        <v>843.4975491433815</v>
+        <v>843.4975491433823</v>
       </c>
       <c r="M18" t="n">
-        <v>1277.536404075617</v>
+        <v>1277.536404075618</v>
       </c>
       <c r="N18" t="n">
         <v>1737.471620890736</v>
       </c>
       <c r="O18" t="n">
-        <v>2136.002693439724</v>
+        <v>2136.002693439725</v>
       </c>
       <c r="P18" t="n">
         <v>2436.525948037006</v>
@@ -5673,16 +5673,16 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J19" t="n">
-        <v>137.7436613720289</v>
+        <v>137.7436613720288</v>
       </c>
       <c r="K19" t="n">
-        <v>336.642113073884</v>
+        <v>336.6421130738839</v>
       </c>
       <c r="L19" t="n">
-        <v>646.6900875150417</v>
+        <v>646.6900875150416</v>
       </c>
       <c r="M19" t="n">
-        <v>983.98132772395</v>
+        <v>983.9813277239498</v>
       </c>
       <c r="N19" t="n">
         <v>1318.687152545534</v>
@@ -5691,34 +5691,34 @@
         <v>1611.825859961355</v>
       </c>
       <c r="P19" t="n">
-        <v>1839.13598320328</v>
+        <v>1839.135983203279</v>
       </c>
       <c r="Q19" t="n">
         <v>1913.078649972671</v>
       </c>
       <c r="R19" t="n">
-        <v>1821.238811302083</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="S19" t="n">
-        <v>1628.774119163341</v>
+        <v>1720.613957833929</v>
       </c>
       <c r="T19" t="n">
-        <v>1406.816559682885</v>
+        <v>1498.656398353472</v>
       </c>
       <c r="U19" t="n">
-        <v>1117.711255224911</v>
+        <v>1209.551093895499</v>
       </c>
       <c r="V19" t="n">
-        <v>863.0267670190245</v>
+        <v>954.8666056896124</v>
       </c>
       <c r="W19" t="n">
-        <v>573.609596982064</v>
+        <v>665.4494356526518</v>
       </c>
       <c r="X19" t="n">
-        <v>345.6200460840466</v>
+        <v>437.4598847546345</v>
       </c>
       <c r="Y19" t="n">
-        <v>124.8274669405165</v>
+        <v>216.6673056111044</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2379.333770138673</v>
+        <v>2379.333770138674</v>
       </c>
       <c r="C20" t="n">
-        <v>2010.371253198261</v>
+        <v>2010.371253198262</v>
       </c>
       <c r="D20" t="n">
-        <v>1652.105554591511</v>
+        <v>1652.105554591512</v>
       </c>
       <c r="E20" t="n">
         <v>1266.317301993267</v>
       </c>
       <c r="F20" t="n">
-        <v>855.3313972036598</v>
+        <v>855.3313972036599</v>
       </c>
       <c r="G20" t="n">
         <v>440.1593205155743</v>
@@ -5752,28 +5752,28 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J20" t="n">
-        <v>276.3093906935955</v>
+        <v>443.7150397139484</v>
       </c>
       <c r="K20" t="n">
-        <v>918.6120443066563</v>
+        <v>1086.017693327009</v>
       </c>
       <c r="L20" t="n">
-        <v>1767.721909941649</v>
+        <v>1611.438070502395</v>
       </c>
       <c r="M20" t="n">
-        <v>2284.108388731333</v>
+        <v>2127.824549292078</v>
       </c>
       <c r="N20" t="n">
-        <v>3246.437804159973</v>
+        <v>2657.180509552854</v>
       </c>
       <c r="O20" t="n">
-        <v>4109.950544869123</v>
+        <v>3520.693250262004</v>
       </c>
       <c r="P20" t="n">
-        <v>4490.683586993752</v>
+        <v>4220.007013476401</v>
       </c>
       <c r="Q20" t="n">
-        <v>4733.000021926293</v>
+        <v>4667.940766252041</v>
       </c>
       <c r="R20" t="n">
         <v>4785.883460762037</v>
@@ -5785,19 +5785,19 @@
         <v>4466.908689902182</v>
       </c>
       <c r="U20" t="n">
-        <v>4213.370243053371</v>
+        <v>4213.370243053372</v>
       </c>
       <c r="V20" t="n">
-        <v>3882.307355709801</v>
+        <v>3882.307355709802</v>
       </c>
       <c r="W20" t="n">
-        <v>3529.538700439686</v>
+        <v>3529.538700439688</v>
       </c>
       <c r="X20" t="n">
-        <v>3156.072942178606</v>
+        <v>3156.072942178608</v>
       </c>
       <c r="Y20" t="n">
-        <v>2765.933610202795</v>
+        <v>2765.933610202796</v>
       </c>
     </row>
     <row r="21">
@@ -5816,13 +5816,13 @@
         <v>639.5373370222824</v>
       </c>
       <c r="E21" t="n">
-        <v>480.2998820168268</v>
+        <v>480.2998820168269</v>
       </c>
       <c r="F21" t="n">
-        <v>333.7653240437118</v>
+        <v>333.7653240437119</v>
       </c>
       <c r="G21" t="n">
-        <v>197.3489189817663</v>
+        <v>197.3489189817664</v>
       </c>
       <c r="H21" t="n">
         <v>106.3322115589798</v>
@@ -5831,22 +5831,22 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J21" t="n">
-        <v>258.3150913629237</v>
+        <v>184.4590143936093</v>
       </c>
       <c r="K21" t="n">
-        <v>488.1430095111803</v>
+        <v>488.1430095111811</v>
       </c>
       <c r="L21" t="n">
-        <v>843.4975491433815</v>
+        <v>843.4975491433823</v>
       </c>
       <c r="M21" t="n">
-        <v>1277.536404075617</v>
+        <v>1277.536404075618</v>
       </c>
       <c r="N21" t="n">
         <v>1737.471620890736</v>
       </c>
       <c r="O21" t="n">
-        <v>2136.002693439724</v>
+        <v>2136.002693439725</v>
       </c>
       <c r="P21" t="n">
         <v>2436.525948037006</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>709.5735326357868</v>
+        <v>668.9291251833632</v>
       </c>
       <c r="C22" t="n">
-        <v>540.6373497078799</v>
+        <v>668.9291251833632</v>
       </c>
       <c r="D22" t="n">
-        <v>390.5207102955442</v>
+        <v>518.8124857710275</v>
       </c>
       <c r="E22" t="n">
-        <v>242.6076167131511</v>
+        <v>410.0797077851773</v>
       </c>
       <c r="F22" t="n">
-        <v>95.71766921524075</v>
+        <v>410.0797077851773</v>
       </c>
       <c r="G22" t="n">
-        <v>95.71766921524075</v>
+        <v>242.3321821269216</v>
       </c>
       <c r="H22" t="n">
         <v>95.71766921524075</v>
@@ -5910,16 +5910,16 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J22" t="n">
-        <v>137.7436613720289</v>
+        <v>137.7436613720288</v>
       </c>
       <c r="K22" t="n">
-        <v>336.642113073884</v>
+        <v>336.6421130738839</v>
       </c>
       <c r="L22" t="n">
-        <v>646.6900875150417</v>
+        <v>646.6900875150416</v>
       </c>
       <c r="M22" t="n">
-        <v>983.98132772395</v>
+        <v>983.9813277239498</v>
       </c>
       <c r="N22" t="n">
         <v>1318.687152545534</v>
@@ -5928,34 +5928,34 @@
         <v>1611.825859961355</v>
       </c>
       <c r="P22" t="n">
-        <v>1839.13598320328</v>
+        <v>1839.135983203279</v>
       </c>
       <c r="Q22" t="n">
         <v>1913.078649972671</v>
       </c>
       <c r="R22" t="n">
-        <v>1913.078649972671</v>
+        <v>1821.238811302082</v>
       </c>
       <c r="S22" t="n">
-        <v>1720.61395783393</v>
+        <v>1628.774119163341</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.656398353473</v>
+        <v>1406.816559682884</v>
       </c>
       <c r="U22" t="n">
-        <v>1498.656398353473</v>
+        <v>1117.711255224911</v>
       </c>
       <c r="V22" t="n">
-        <v>1340.004127507574</v>
+        <v>1117.711255224911</v>
       </c>
       <c r="W22" t="n">
-        <v>1340.004127507574</v>
+        <v>1117.711255224911</v>
       </c>
       <c r="X22" t="n">
-        <v>1112.014576609557</v>
+        <v>889.7217043268934</v>
       </c>
       <c r="Y22" t="n">
-        <v>891.2219974660266</v>
+        <v>668.9291251833632</v>
       </c>
     </row>
     <row r="23">
@@ -5974,13 +5974,13 @@
         <v>1652.105554591512</v>
       </c>
       <c r="E23" t="n">
-        <v>1266.317301993267</v>
+        <v>1266.317301993268</v>
       </c>
       <c r="F23" t="n">
-        <v>855.3313972036598</v>
+        <v>855.3313972036599</v>
       </c>
       <c r="G23" t="n">
-        <v>440.1593205155743</v>
+        <v>440.1593205155741</v>
       </c>
       <c r="H23" t="n">
         <v>141.5554198924156</v>
@@ -5989,10 +5989,10 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J23" t="n">
-        <v>276.3093906935955</v>
+        <v>276.3093906935954</v>
       </c>
       <c r="K23" t="n">
-        <v>597.7080858612032</v>
+        <v>597.708085861203</v>
       </c>
       <c r="L23" t="n">
         <v>1446.817951496196</v>
@@ -6001,7 +6001,7 @@
         <v>2408.222828443784</v>
       </c>
       <c r="N23" t="n">
-        <v>3370.552243872425</v>
+        <v>3370.552243872424</v>
       </c>
       <c r="O23" t="n">
         <v>4114.52506777933</v>
@@ -6025,13 +6025,13 @@
         <v>4213.370243053372</v>
       </c>
       <c r="V23" t="n">
-        <v>3882.307355709802</v>
+        <v>3882.307355709801</v>
       </c>
       <c r="W23" t="n">
-        <v>3529.538700439688</v>
+        <v>3529.538700439687</v>
       </c>
       <c r="X23" t="n">
-        <v>3156.072942178608</v>
+        <v>3156.072942178607</v>
       </c>
       <c r="Y23" t="n">
         <v>2765.933610202796</v>
@@ -6053,13 +6053,13 @@
         <v>639.5373370222824</v>
       </c>
       <c r="E24" t="n">
-        <v>480.2998820168268</v>
+        <v>480.2998820168269</v>
       </c>
       <c r="F24" t="n">
-        <v>333.7653240437118</v>
+        <v>333.7653240437119</v>
       </c>
       <c r="G24" t="n">
-        <v>197.3489189817663</v>
+        <v>197.3489189817664</v>
       </c>
       <c r="H24" t="n">
         <v>106.3322115589798</v>
@@ -6068,22 +6068,22 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J24" t="n">
-        <v>258.3150913629237</v>
+        <v>184.4590143936093</v>
       </c>
       <c r="K24" t="n">
-        <v>488.1430095111803</v>
+        <v>414.2869325418658</v>
       </c>
       <c r="L24" t="n">
-        <v>843.4975491433815</v>
+        <v>769.6414721740671</v>
       </c>
       <c r="M24" t="n">
-        <v>1277.536404075617</v>
+        <v>1203.680327106303</v>
       </c>
       <c r="N24" t="n">
-        <v>1737.471620890736</v>
+        <v>1663.615543921421</v>
       </c>
       <c r="O24" t="n">
-        <v>2136.002693439724</v>
+        <v>2062.146616470409</v>
       </c>
       <c r="P24" t="n">
         <v>2436.525948037006</v>
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>806.7790390622906</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="C25" t="n">
-        <v>806.7790390622906</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="D25" t="n">
-        <v>656.6623996499549</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="E25" t="n">
-        <v>508.7493060675617</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="F25" t="n">
-        <v>508.7493060675617</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="G25" t="n">
-        <v>341.001780409306</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H25" t="n">
-        <v>194.3872674976251</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="I25" t="n">
         <v>95.71766921524075</v>
       </c>
       <c r="J25" t="n">
-        <v>137.7436613720289</v>
+        <v>137.7436613720288</v>
       </c>
       <c r="K25" t="n">
-        <v>336.642113073884</v>
+        <v>336.6421130738839</v>
       </c>
       <c r="L25" t="n">
-        <v>646.6900875150417</v>
+        <v>646.6900875150416</v>
       </c>
       <c r="M25" t="n">
-        <v>983.98132772395</v>
+        <v>983.9813277239498</v>
       </c>
       <c r="N25" t="n">
         <v>1318.687152545534</v>
@@ -6165,7 +6165,7 @@
         <v>1611.825859961355</v>
       </c>
       <c r="P25" t="n">
-        <v>1839.13598320328</v>
+        <v>1839.135983203279</v>
       </c>
       <c r="Q25" t="n">
         <v>1913.078649972671</v>
@@ -6174,25 +6174,25 @@
         <v>1913.078649972671</v>
       </c>
       <c r="S25" t="n">
-        <v>1720.61395783393</v>
+        <v>1720.613957833929</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.656398353473</v>
+        <v>1498.656398353472</v>
       </c>
       <c r="U25" t="n">
-        <v>1209.5510938955</v>
+        <v>1209.551093895499</v>
       </c>
       <c r="V25" t="n">
-        <v>1209.5510938955</v>
+        <v>954.8666056896124</v>
       </c>
       <c r="W25" t="n">
-        <v>920.1339238585392</v>
+        <v>726.1482640870279</v>
       </c>
       <c r="X25" t="n">
-        <v>920.1339238585392</v>
+        <v>498.1587131890105</v>
       </c>
       <c r="Y25" t="n">
-        <v>806.7790390622906</v>
+        <v>277.3661340454805</v>
       </c>
     </row>
     <row r="26">
@@ -6208,46 +6208,46 @@
         <v>2010.371253198262</v>
       </c>
       <c r="D26" t="n">
-        <v>1652.105554591512</v>
+        <v>1652.105554591511</v>
       </c>
       <c r="E26" t="n">
         <v>1266.317301993267</v>
       </c>
       <c r="F26" t="n">
-        <v>855.3313972036598</v>
+        <v>855.3313972036597</v>
       </c>
       <c r="G26" t="n">
-        <v>440.1593205155743</v>
+        <v>440.1593205155742</v>
       </c>
       <c r="H26" t="n">
-        <v>141.5554198924156</v>
+        <v>141.5554198924154</v>
       </c>
       <c r="I26" t="n">
         <v>95.71766921524075</v>
       </c>
       <c r="J26" t="n">
-        <v>276.3093906935955</v>
+        <v>443.7150397139484</v>
       </c>
       <c r="K26" t="n">
-        <v>597.7080858612032</v>
+        <v>1086.017693327009</v>
       </c>
       <c r="L26" t="n">
-        <v>1446.817951496196</v>
+        <v>1611.438070502395</v>
       </c>
       <c r="M26" t="n">
-        <v>2408.222828443784</v>
+        <v>2127.824549292078</v>
       </c>
       <c r="N26" t="n">
-        <v>3370.552243872425</v>
+        <v>2657.180509552854</v>
       </c>
       <c r="O26" t="n">
-        <v>4114.52506777933</v>
+        <v>3520.693250262004</v>
       </c>
       <c r="P26" t="n">
-        <v>4495.258109903959</v>
+        <v>4220.007013476401</v>
       </c>
       <c r="Q26" t="n">
-        <v>4733.000021926293</v>
+        <v>4667.940766252041</v>
       </c>
       <c r="R26" t="n">
         <v>4785.883460762037</v>
@@ -6262,13 +6262,13 @@
         <v>4213.370243053372</v>
       </c>
       <c r="V26" t="n">
-        <v>3882.307355709802</v>
+        <v>3882.307355709801</v>
       </c>
       <c r="W26" t="n">
-        <v>3529.538700439688</v>
+        <v>3529.538700439687</v>
       </c>
       <c r="X26" t="n">
-        <v>3156.072942178608</v>
+        <v>3156.072942178607</v>
       </c>
       <c r="Y26" t="n">
         <v>2765.933610202796</v>
@@ -6290,13 +6290,13 @@
         <v>639.5373370222824</v>
       </c>
       <c r="E27" t="n">
-        <v>480.2998820168268</v>
+        <v>480.2998820168269</v>
       </c>
       <c r="F27" t="n">
-        <v>333.7653240437118</v>
+        <v>333.7653240437119</v>
       </c>
       <c r="G27" t="n">
-        <v>197.3489189817663</v>
+        <v>197.3489189817664</v>
       </c>
       <c r="H27" t="n">
         <v>106.3322115589798</v>
@@ -6305,28 +6305,28 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J27" t="n">
-        <v>258.3150913629237</v>
+        <v>216.6338377265969</v>
       </c>
       <c r="K27" t="n">
-        <v>488.1430095111803</v>
+        <v>446.4617558748534</v>
       </c>
       <c r="L27" t="n">
-        <v>843.4975491433815</v>
+        <v>801.8162955070546</v>
       </c>
       <c r="M27" t="n">
-        <v>1277.536404075617</v>
+        <v>1235.85515043929</v>
       </c>
       <c r="N27" t="n">
-        <v>1737.471620890736</v>
+        <v>1695.790367254409</v>
       </c>
       <c r="O27" t="n">
-        <v>2136.002693439724</v>
+        <v>2094.321439803397</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.525948037006</v>
+        <v>2394.844694400679</v>
       </c>
       <c r="Q27" t="n">
-        <v>2587.498588679581</v>
+        <v>2545.817335043254</v>
       </c>
       <c r="R27" t="n">
         <v>2587.498588679581</v>
@@ -6360,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>95.71766921524075</v>
+        <v>953.668986560201</v>
       </c>
       <c r="C28" t="n">
-        <v>95.71766921524075</v>
+        <v>953.668986560201</v>
       </c>
       <c r="D28" t="n">
-        <v>95.71766921524075</v>
+        <v>803.5523471478652</v>
       </c>
       <c r="E28" t="n">
-        <v>95.71766921524075</v>
+        <v>655.6392535654721</v>
       </c>
       <c r="F28" t="n">
-        <v>95.71766921524075</v>
+        <v>508.7493060675617</v>
       </c>
       <c r="G28" t="n">
-        <v>95.71766921524075</v>
+        <v>341.001780409306</v>
       </c>
       <c r="H28" t="n">
-        <v>95.71766921524075</v>
+        <v>194.3872674976251</v>
       </c>
       <c r="I28" t="n">
         <v>95.71766921524075</v>
       </c>
       <c r="J28" t="n">
-        <v>137.7436613720289</v>
+        <v>137.7436613720288</v>
       </c>
       <c r="K28" t="n">
-        <v>336.642113073884</v>
+        <v>336.6421130738839</v>
       </c>
       <c r="L28" t="n">
-        <v>646.6900875150417</v>
+        <v>646.6900875150416</v>
       </c>
       <c r="M28" t="n">
-        <v>983.98132772395</v>
+        <v>983.9813277239498</v>
       </c>
       <c r="N28" t="n">
         <v>1318.687152545534</v>
@@ -6402,34 +6402,34 @@
         <v>1611.825859961355</v>
       </c>
       <c r="P28" t="n">
-        <v>1839.13598320328</v>
+        <v>1839.135983203279</v>
       </c>
       <c r="Q28" t="n">
         <v>1913.078649972671</v>
       </c>
       <c r="R28" t="n">
-        <v>1913.078649972671</v>
+        <v>1821.238811302082</v>
       </c>
       <c r="S28" t="n">
-        <v>1781.312786268305</v>
+        <v>1821.238811302082</v>
       </c>
       <c r="T28" t="n">
-        <v>1559.355226787849</v>
+        <v>1821.238811302082</v>
       </c>
       <c r="U28" t="n">
-        <v>1270.249922329876</v>
+        <v>1821.238811302082</v>
       </c>
       <c r="V28" t="n">
-        <v>1015.565434123989</v>
+        <v>1645.527200570931</v>
       </c>
       <c r="W28" t="n">
-        <v>726.1482640870279</v>
+        <v>1356.110030533971</v>
       </c>
       <c r="X28" t="n">
-        <v>498.1587131890105</v>
+        <v>1356.110030533971</v>
       </c>
       <c r="Y28" t="n">
-        <v>277.3661340454805</v>
+        <v>1135.317451390441</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2379.333770138673</v>
+        <v>2379.333770138674</v>
       </c>
       <c r="C29" t="n">
-        <v>2010.371253198261</v>
+        <v>2010.371253198262</v>
       </c>
       <c r="D29" t="n">
-        <v>1652.105554591511</v>
+        <v>1652.105554591512</v>
       </c>
       <c r="E29" t="n">
-        <v>1266.317301993267</v>
+        <v>1266.317301993268</v>
       </c>
       <c r="F29" t="n">
-        <v>855.3313972036598</v>
+        <v>855.3313972036599</v>
       </c>
       <c r="G29" t="n">
         <v>440.1593205155743</v>
@@ -6463,28 +6463,28 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J29" t="n">
-        <v>276.3093906935955</v>
+        <v>443.7150397139484</v>
       </c>
       <c r="K29" t="n">
-        <v>597.7080858612032</v>
+        <v>1086.017693327009</v>
       </c>
       <c r="L29" t="n">
-        <v>1446.817951496196</v>
+        <v>1611.438070502395</v>
       </c>
       <c r="M29" t="n">
-        <v>2408.222828443784</v>
+        <v>2127.824549292078</v>
       </c>
       <c r="N29" t="n">
-        <v>3370.552243872425</v>
+        <v>2657.180509552854</v>
       </c>
       <c r="O29" t="n">
-        <v>4114.52506777933</v>
+        <v>3520.693250262004</v>
       </c>
       <c r="P29" t="n">
-        <v>4495.258109903959</v>
+        <v>4220.007013476401</v>
       </c>
       <c r="Q29" t="n">
-        <v>4733.000021926293</v>
+        <v>4667.940766252041</v>
       </c>
       <c r="R29" t="n">
         <v>4785.883460762037</v>
@@ -6496,19 +6496,19 @@
         <v>4466.908689902182</v>
       </c>
       <c r="U29" t="n">
-        <v>4213.370243053371</v>
+        <v>4213.370243053372</v>
       </c>
       <c r="V29" t="n">
         <v>3882.307355709801</v>
       </c>
       <c r="W29" t="n">
-        <v>3529.538700439686</v>
+        <v>3529.538700439687</v>
       </c>
       <c r="X29" t="n">
-        <v>3156.072942178606</v>
+        <v>3156.072942178607</v>
       </c>
       <c r="Y29" t="n">
-        <v>2765.933610202795</v>
+        <v>2765.933610202796</v>
       </c>
     </row>
     <row r="30">
@@ -6527,13 +6527,13 @@
         <v>639.5373370222824</v>
       </c>
       <c r="E30" t="n">
-        <v>480.2998820168268</v>
+        <v>480.2998820168269</v>
       </c>
       <c r="F30" t="n">
-        <v>333.7653240437118</v>
+        <v>333.7653240437119</v>
       </c>
       <c r="G30" t="n">
-        <v>197.3489189817663</v>
+        <v>197.3489189817664</v>
       </c>
       <c r="H30" t="n">
         <v>106.3322115589798</v>
@@ -6542,25 +6542,25 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J30" t="n">
-        <v>184.4590143936093</v>
+        <v>216.6338377265969</v>
       </c>
       <c r="K30" t="n">
-        <v>414.2869325418659</v>
+        <v>446.4617558748534</v>
       </c>
       <c r="L30" t="n">
-        <v>769.6414721740672</v>
+        <v>801.8162955070546</v>
       </c>
       <c r="M30" t="n">
-        <v>1203.680327106303</v>
+        <v>1235.85515043929</v>
       </c>
       <c r="N30" t="n">
-        <v>1663.615543921421</v>
+        <v>1695.790367254409</v>
       </c>
       <c r="O30" t="n">
-        <v>2062.14661647041</v>
+        <v>2094.321439803397</v>
       </c>
       <c r="P30" t="n">
-        <v>2362.669871067691</v>
+        <v>2394.844694400679</v>
       </c>
       <c r="Q30" t="n">
         <v>2545.817335043254</v>
@@ -6621,16 +6621,16 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J31" t="n">
-        <v>137.7436613720289</v>
+        <v>137.7436613720288</v>
       </c>
       <c r="K31" t="n">
-        <v>336.642113073884</v>
+        <v>336.6421130738839</v>
       </c>
       <c r="L31" t="n">
-        <v>646.6900875150417</v>
+        <v>646.6900875150416</v>
       </c>
       <c r="M31" t="n">
-        <v>983.98132772395</v>
+        <v>983.9813277239498</v>
       </c>
       <c r="N31" t="n">
         <v>1318.687152545534</v>
@@ -6639,34 +6639,34 @@
         <v>1611.825859961355</v>
       </c>
       <c r="P31" t="n">
-        <v>1839.13598320328</v>
+        <v>1839.135983203279</v>
       </c>
       <c r="Q31" t="n">
         <v>1913.078649972671</v>
       </c>
       <c r="R31" t="n">
-        <v>1821.238811302083</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="S31" t="n">
-        <v>1628.774119163341</v>
+        <v>1781.312786268305</v>
       </c>
       <c r="T31" t="n">
-        <v>1406.816559682885</v>
+        <v>1559.355226787849</v>
       </c>
       <c r="U31" t="n">
-        <v>1117.711255224911</v>
+        <v>1270.249922329876</v>
       </c>
       <c r="V31" t="n">
-        <v>863.0267670190245</v>
+        <v>1015.565434123989</v>
       </c>
       <c r="W31" t="n">
-        <v>573.609596982064</v>
+        <v>726.1482640870279</v>
       </c>
       <c r="X31" t="n">
-        <v>345.6200460840466</v>
+        <v>498.1587131890105</v>
       </c>
       <c r="Y31" t="n">
-        <v>124.8274669405165</v>
+        <v>277.3661340454805</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2379.333770138673</v>
+        <v>2379.333770138674</v>
       </c>
       <c r="C32" t="n">
-        <v>2010.371253198261</v>
+        <v>2010.371253198262</v>
       </c>
       <c r="D32" t="n">
-        <v>1652.105554591511</v>
+        <v>1652.105554591512</v>
       </c>
       <c r="E32" t="n">
-        <v>1266.317301993267</v>
+        <v>1266.317301993268</v>
       </c>
       <c r="F32" t="n">
-        <v>855.3313972036598</v>
+        <v>855.3313972036599</v>
       </c>
       <c r="G32" t="n">
-        <v>440.1593205155743</v>
+        <v>440.1593205155741</v>
       </c>
       <c r="H32" t="n">
         <v>141.5554198924156</v>
@@ -6700,10 +6700,10 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J32" t="n">
-        <v>276.3093906935955</v>
+        <v>276.3093906935954</v>
       </c>
       <c r="K32" t="n">
-        <v>597.7080858612032</v>
+        <v>597.708085861203</v>
       </c>
       <c r="L32" t="n">
         <v>1327.278034693952</v>
@@ -6712,7 +6712,7 @@
         <v>2288.68291164154</v>
       </c>
       <c r="N32" t="n">
-        <v>3251.01232707018</v>
+        <v>3251.012327070181</v>
       </c>
       <c r="O32" t="n">
         <v>4114.52506777933</v>
@@ -6733,19 +6733,19 @@
         <v>4466.908689902182</v>
       </c>
       <c r="U32" t="n">
-        <v>4213.370243053371</v>
+        <v>4213.370243053372</v>
       </c>
       <c r="V32" t="n">
         <v>3882.307355709801</v>
       </c>
       <c r="W32" t="n">
-        <v>3529.538700439686</v>
+        <v>3529.538700439687</v>
       </c>
       <c r="X32" t="n">
-        <v>3156.072942178606</v>
+        <v>3156.072942178607</v>
       </c>
       <c r="Y32" t="n">
-        <v>2765.933610202795</v>
+        <v>2765.933610202796</v>
       </c>
     </row>
     <row r="33">
@@ -6764,13 +6764,13 @@
         <v>639.5373370222824</v>
       </c>
       <c r="E33" t="n">
-        <v>480.2998820168268</v>
+        <v>480.2998820168269</v>
       </c>
       <c r="F33" t="n">
-        <v>333.7653240437118</v>
+        <v>333.7653240437119</v>
       </c>
       <c r="G33" t="n">
-        <v>197.3489189817663</v>
+        <v>197.3489189817664</v>
       </c>
       <c r="H33" t="n">
         <v>106.3322115589798</v>
@@ -6782,10 +6782,10 @@
         <v>184.4590143936093</v>
       </c>
       <c r="K33" t="n">
-        <v>414.2869325418659</v>
+        <v>414.2869325418658</v>
       </c>
       <c r="L33" t="n">
-        <v>769.6414721740672</v>
+        <v>769.6414721740671</v>
       </c>
       <c r="M33" t="n">
         <v>1203.680327106303</v>
@@ -6794,10 +6794,10 @@
         <v>1663.615543921421</v>
       </c>
       <c r="O33" t="n">
-        <v>2136.002693439724</v>
+        <v>2062.146616470409</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.525948037006</v>
+        <v>2362.66987106769</v>
       </c>
       <c r="Q33" t="n">
         <v>2587.498588679581</v>
@@ -6858,16 +6858,16 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J34" t="n">
-        <v>137.7436613720289</v>
+        <v>137.7436613720288</v>
       </c>
       <c r="K34" t="n">
-        <v>336.642113073884</v>
+        <v>336.6421130738839</v>
       </c>
       <c r="L34" t="n">
-        <v>646.6900875150417</v>
+        <v>646.6900875150416</v>
       </c>
       <c r="M34" t="n">
-        <v>983.98132772395</v>
+        <v>983.9813277239498</v>
       </c>
       <c r="N34" t="n">
         <v>1318.687152545534</v>
@@ -6876,7 +6876,7 @@
         <v>1611.825859961355</v>
       </c>
       <c r="P34" t="n">
-        <v>1839.13598320328</v>
+        <v>1839.135983203279</v>
       </c>
       <c r="Q34" t="n">
         <v>1913.078649972671</v>
@@ -6885,25 +6885,25 @@
         <v>1913.078649972671</v>
       </c>
       <c r="S34" t="n">
-        <v>1781.312786268305</v>
+        <v>1720.613957833929</v>
       </c>
       <c r="T34" t="n">
-        <v>1559.355226787849</v>
+        <v>1498.656398353472</v>
       </c>
       <c r="U34" t="n">
-        <v>1270.249922329876</v>
+        <v>1209.551093895499</v>
       </c>
       <c r="V34" t="n">
-        <v>1015.565434123989</v>
+        <v>954.8666056896124</v>
       </c>
       <c r="W34" t="n">
-        <v>726.1482640870279</v>
+        <v>665.4494356526518</v>
       </c>
       <c r="X34" t="n">
-        <v>498.1587131890105</v>
+        <v>437.4598847546345</v>
       </c>
       <c r="Y34" t="n">
-        <v>277.3661340454805</v>
+        <v>216.6673056111044</v>
       </c>
     </row>
     <row r="35">
@@ -6919,16 +6919,16 @@
         <v>2010.371253198262</v>
       </c>
       <c r="D35" t="n">
-        <v>1652.105554591512</v>
+        <v>1652.105554591511</v>
       </c>
       <c r="E35" t="n">
-        <v>1266.317301993268</v>
+        <v>1266.317301993267</v>
       </c>
       <c r="F35" t="n">
-        <v>855.3313972036599</v>
+        <v>855.3313972036597</v>
       </c>
       <c r="G35" t="n">
-        <v>440.1593205155741</v>
+        <v>440.1593205155743</v>
       </c>
       <c r="H35" t="n">
         <v>141.5554198924156</v>
@@ -6937,25 +6937,25 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J35" t="n">
-        <v>443.7150397139486</v>
+        <v>443.7150397139484</v>
       </c>
       <c r="K35" t="n">
-        <v>765.1137348815562</v>
+        <v>1086.017693327009</v>
       </c>
       <c r="L35" t="n">
-        <v>1614.223600516549</v>
+        <v>1521.642956557056</v>
       </c>
       <c r="M35" t="n">
-        <v>2130.610079306233</v>
+        <v>2038.02943534674</v>
       </c>
       <c r="N35" t="n">
-        <v>3092.939494734873</v>
+        <v>2657.180509552854</v>
       </c>
       <c r="O35" t="n">
-        <v>3956.452235444023</v>
+        <v>3520.693250262004</v>
       </c>
       <c r="P35" t="n">
-        <v>4337.185277568652</v>
+        <v>4220.007013476401</v>
       </c>
       <c r="Q35" t="n">
         <v>4667.940766252041</v>
@@ -7001,13 +7001,13 @@
         <v>639.5373370222824</v>
       </c>
       <c r="E36" t="n">
-        <v>480.2998820168268</v>
+        <v>480.2998820168269</v>
       </c>
       <c r="F36" t="n">
-        <v>333.7653240437118</v>
+        <v>333.7653240437119</v>
       </c>
       <c r="G36" t="n">
-        <v>197.3489189817663</v>
+        <v>197.3489189817664</v>
       </c>
       <c r="H36" t="n">
         <v>106.3322115589798</v>
@@ -7016,28 +7016,28 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J36" t="n">
-        <v>216.633837726596</v>
+        <v>184.4590143936093</v>
       </c>
       <c r="K36" t="n">
-        <v>446.4617558748525</v>
+        <v>414.2869325418658</v>
       </c>
       <c r="L36" t="n">
-        <v>801.8162955070538</v>
+        <v>769.6414721740671</v>
       </c>
       <c r="M36" t="n">
-        <v>1235.85515043929</v>
+        <v>1203.680327106303</v>
       </c>
       <c r="N36" t="n">
-        <v>1695.790367254408</v>
+        <v>1663.615543921421</v>
       </c>
       <c r="O36" t="n">
-        <v>2094.321439803397</v>
+        <v>2062.146616470409</v>
       </c>
       <c r="P36" t="n">
-        <v>2394.844694400678</v>
+        <v>2362.66987106769</v>
       </c>
       <c r="Q36" t="n">
-        <v>2545.817335043254</v>
+        <v>2587.498588679581</v>
       </c>
       <c r="R36" t="n">
         <v>2587.498588679581</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>449.4410924000633</v>
+        <v>726.9289842954773</v>
       </c>
       <c r="C37" t="n">
-        <v>280.5049094721564</v>
+        <v>557.9928013675705</v>
       </c>
       <c r="D37" t="n">
-        <v>130.3882700598207</v>
+        <v>557.9928013675705</v>
       </c>
       <c r="E37" t="n">
-        <v>130.3882700598207</v>
+        <v>410.0797077851773</v>
       </c>
       <c r="F37" t="n">
-        <v>130.3882700598207</v>
+        <v>410.0797077851773</v>
       </c>
       <c r="G37" t="n">
-        <v>95.71766921524075</v>
+        <v>242.3321821269216</v>
       </c>
       <c r="H37" t="n">
         <v>95.71766921524075</v>
@@ -7095,16 +7095,16 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J37" t="n">
-        <v>137.7436613720289</v>
+        <v>137.7436613720288</v>
       </c>
       <c r="K37" t="n">
-        <v>336.642113073884</v>
+        <v>336.6421130738839</v>
       </c>
       <c r="L37" t="n">
-        <v>646.6900875150417</v>
+        <v>646.6900875150416</v>
       </c>
       <c r="M37" t="n">
-        <v>983.98132772395</v>
+        <v>983.9813277239498</v>
       </c>
       <c r="N37" t="n">
         <v>1318.687152545534</v>
@@ -7113,7 +7113,7 @@
         <v>1611.825859961355</v>
       </c>
       <c r="P37" t="n">
-        <v>1839.13598320328</v>
+        <v>1839.135983203279</v>
       </c>
       <c r="Q37" t="n">
         <v>1913.078649972671</v>
@@ -7128,19 +7128,19 @@
         <v>1913.078649972671</v>
       </c>
       <c r="U37" t="n">
-        <v>1623.973345514698</v>
+        <v>1901.461237410112</v>
       </c>
       <c r="V37" t="n">
-        <v>1369.288857308811</v>
+        <v>1646.776749204225</v>
       </c>
       <c r="W37" t="n">
-        <v>1079.871687271851</v>
+        <v>1357.359579167264</v>
       </c>
       <c r="X37" t="n">
-        <v>851.8821363738332</v>
+        <v>1129.370028269247</v>
       </c>
       <c r="Y37" t="n">
-        <v>631.0895572303031</v>
+        <v>908.5774491257171</v>
       </c>
     </row>
     <row r="38">
@@ -7156,13 +7156,13 @@
         <v>2010.371253198262</v>
       </c>
       <c r="D38" t="n">
-        <v>1652.105554591512</v>
+        <v>1652.105554591511</v>
       </c>
       <c r="E38" t="n">
         <v>1266.317301993267</v>
       </c>
       <c r="F38" t="n">
-        <v>855.3313972036598</v>
+        <v>855.3313972036599</v>
       </c>
       <c r="G38" t="n">
         <v>440.1593205155743</v>
@@ -7174,28 +7174,28 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J38" t="n">
-        <v>276.3093906935955</v>
+        <v>443.7150397139484</v>
       </c>
       <c r="K38" t="n">
-        <v>918.6120443066563</v>
+        <v>765.113734881556</v>
       </c>
       <c r="L38" t="n">
-        <v>1767.721909941649</v>
+        <v>1200.738998111603</v>
       </c>
       <c r="M38" t="n">
-        <v>2284.108388731333</v>
+        <v>1717.125476901286</v>
       </c>
       <c r="N38" t="n">
-        <v>3246.437804159973</v>
+        <v>2657.180509552854</v>
       </c>
       <c r="O38" t="n">
-        <v>4109.950544869123</v>
+        <v>3520.693250262004</v>
       </c>
       <c r="P38" t="n">
-        <v>4495.258109903959</v>
+        <v>4220.007013476401</v>
       </c>
       <c r="Q38" t="n">
-        <v>4733.000021926293</v>
+        <v>4667.940766252041</v>
       </c>
       <c r="R38" t="n">
         <v>4785.883460762037</v>
@@ -7210,13 +7210,13 @@
         <v>4213.370243053372</v>
       </c>
       <c r="V38" t="n">
-        <v>3882.307355709802</v>
+        <v>3882.307355709801</v>
       </c>
       <c r="W38" t="n">
-        <v>3529.538700439688</v>
+        <v>3529.538700439687</v>
       </c>
       <c r="X38" t="n">
-        <v>3156.072942178608</v>
+        <v>3156.072942178607</v>
       </c>
       <c r="Y38" t="n">
         <v>2765.933610202796</v>
@@ -7238,13 +7238,13 @@
         <v>639.5373370222824</v>
       </c>
       <c r="E39" t="n">
-        <v>480.2998820168268</v>
+        <v>480.2998820168269</v>
       </c>
       <c r="F39" t="n">
-        <v>333.7653240437118</v>
+        <v>333.7653240437119</v>
       </c>
       <c r="G39" t="n">
-        <v>197.3489189817663</v>
+        <v>197.3489189817664</v>
       </c>
       <c r="H39" t="n">
         <v>106.3322115589798</v>
@@ -7253,28 +7253,28 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J39" t="n">
-        <v>258.3150913629237</v>
+        <v>216.6338377265969</v>
       </c>
       <c r="K39" t="n">
-        <v>488.1430095111803</v>
+        <v>446.4617558748534</v>
       </c>
       <c r="L39" t="n">
-        <v>843.4975491433815</v>
+        <v>801.8162955070546</v>
       </c>
       <c r="M39" t="n">
-        <v>1277.536404075617</v>
+        <v>1235.85515043929</v>
       </c>
       <c r="N39" t="n">
-        <v>1737.471620890736</v>
+        <v>1695.790367254409</v>
       </c>
       <c r="O39" t="n">
-        <v>2136.002693439724</v>
+        <v>2094.321439803397</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.525948037006</v>
+        <v>2394.844694400679</v>
       </c>
       <c r="Q39" t="n">
-        <v>2587.498588679581</v>
+        <v>2545.817335043254</v>
       </c>
       <c r="R39" t="n">
         <v>2587.498588679581</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>873.8189317933877</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="C40" t="n">
-        <v>704.8827488654808</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="D40" t="n">
-        <v>704.8827488654808</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="E40" t="n">
-        <v>556.9696552830877</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="F40" t="n">
-        <v>410.0797077851773</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="G40" t="n">
-        <v>242.3321821269216</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H40" t="n">
         <v>95.71766921524075</v>
@@ -7332,16 +7332,16 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J40" t="n">
-        <v>137.7436613720289</v>
+        <v>137.7436613720288</v>
       </c>
       <c r="K40" t="n">
-        <v>336.642113073884</v>
+        <v>336.6421130738839</v>
       </c>
       <c r="L40" t="n">
-        <v>646.6900875150417</v>
+        <v>646.6900875150416</v>
       </c>
       <c r="M40" t="n">
-        <v>983.98132772395</v>
+        <v>983.9813277239498</v>
       </c>
       <c r="N40" t="n">
         <v>1318.687152545534</v>
@@ -7350,34 +7350,34 @@
         <v>1611.825859961355</v>
       </c>
       <c r="P40" t="n">
-        <v>1839.13598320328</v>
+        <v>1839.135983203279</v>
       </c>
       <c r="Q40" t="n">
         <v>1913.078649972671</v>
       </c>
       <c r="R40" t="n">
-        <v>1821.238811302083</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="S40" t="n">
-        <v>1628.774119163341</v>
+        <v>1720.613957833929</v>
       </c>
       <c r="T40" t="n">
-        <v>1628.774119163341</v>
+        <v>1498.656398353472</v>
       </c>
       <c r="U40" t="n">
-        <v>1565.677145804118</v>
+        <v>1209.551093895499</v>
       </c>
       <c r="V40" t="n">
-        <v>1565.677145804118</v>
+        <v>954.8666056896124</v>
       </c>
       <c r="W40" t="n">
-        <v>1276.259975767157</v>
+        <v>665.4494356526518</v>
       </c>
       <c r="X40" t="n">
-        <v>1276.259975767157</v>
+        <v>437.4598847546345</v>
       </c>
       <c r="Y40" t="n">
-        <v>1055.467396623627</v>
+        <v>277.3661340454805</v>
       </c>
     </row>
     <row r="41">
@@ -7396,13 +7396,13 @@
         <v>1652.105554591512</v>
       </c>
       <c r="E41" t="n">
-        <v>1266.317301993267</v>
+        <v>1266.317301993268</v>
       </c>
       <c r="F41" t="n">
-        <v>855.3313972036598</v>
+        <v>855.3313972036599</v>
       </c>
       <c r="G41" t="n">
-        <v>440.1593205155743</v>
+        <v>440.1593205155741</v>
       </c>
       <c r="H41" t="n">
         <v>141.5554198924156</v>
@@ -7411,28 +7411,28 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J41" t="n">
-        <v>276.3093906935955</v>
+        <v>443.7150397139484</v>
       </c>
       <c r="K41" t="n">
-        <v>597.7080858612032</v>
+        <v>765.113734881556</v>
       </c>
       <c r="L41" t="n">
-        <v>1446.817951496196</v>
+        <v>1429.019117716511</v>
       </c>
       <c r="M41" t="n">
-        <v>2408.222828443784</v>
+        <v>2390.423994664099</v>
       </c>
       <c r="N41" t="n">
-        <v>3370.552243872425</v>
+        <v>3352.75341009274</v>
       </c>
       <c r="O41" t="n">
-        <v>4114.52506777933</v>
+        <v>3839.273971351772</v>
       </c>
       <c r="P41" t="n">
-        <v>4495.258109903959</v>
+        <v>4220.007013476401</v>
       </c>
       <c r="Q41" t="n">
-        <v>4733.000021926293</v>
+        <v>4667.940766252041</v>
       </c>
       <c r="R41" t="n">
         <v>4785.883460762037</v>
@@ -7447,13 +7447,13 @@
         <v>4213.370243053372</v>
       </c>
       <c r="V41" t="n">
-        <v>3882.307355709802</v>
+        <v>3882.307355709801</v>
       </c>
       <c r="W41" t="n">
-        <v>3529.538700439688</v>
+        <v>3529.538700439687</v>
       </c>
       <c r="X41" t="n">
-        <v>3156.072942178608</v>
+        <v>3156.072942178607</v>
       </c>
       <c r="Y41" t="n">
         <v>2765.933610202796</v>
@@ -7475,13 +7475,13 @@
         <v>639.5373370222824</v>
       </c>
       <c r="E42" t="n">
-        <v>480.2998820168268</v>
+        <v>480.2998820168269</v>
       </c>
       <c r="F42" t="n">
-        <v>333.7653240437118</v>
+        <v>333.7653240437119</v>
       </c>
       <c r="G42" t="n">
-        <v>197.3489189817663</v>
+        <v>197.3489189817664</v>
       </c>
       <c r="H42" t="n">
         <v>106.3322115589798</v>
@@ -7490,28 +7490,28 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J42" t="n">
-        <v>184.4590143936093</v>
+        <v>216.6338377265969</v>
       </c>
       <c r="K42" t="n">
-        <v>414.2869325418659</v>
+        <v>446.4617558748534</v>
       </c>
       <c r="L42" t="n">
-        <v>769.6414721740672</v>
+        <v>801.8162955070546</v>
       </c>
       <c r="M42" t="n">
-        <v>1203.680327106303</v>
+        <v>1235.85515043929</v>
       </c>
       <c r="N42" t="n">
-        <v>1663.615543921421</v>
+        <v>1695.790367254409</v>
       </c>
       <c r="O42" t="n">
-        <v>2062.14661647041</v>
+        <v>2094.321439803397</v>
       </c>
       <c r="P42" t="n">
-        <v>2436.525948037006</v>
+        <v>2394.844694400679</v>
       </c>
       <c r="Q42" t="n">
-        <v>2587.498588679581</v>
+        <v>2545.817335043254</v>
       </c>
       <c r="R42" t="n">
         <v>2587.498588679581</v>
@@ -7545,10 +7545,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>95.71766921524075</v>
+        <v>414.7704915554834</v>
       </c>
       <c r="C43" t="n">
-        <v>95.71766921524075</v>
+        <v>245.8343086275765</v>
       </c>
       <c r="D43" t="n">
         <v>95.71766921524075</v>
@@ -7569,16 +7569,16 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J43" t="n">
-        <v>137.7436613720289</v>
+        <v>137.7436613720288</v>
       </c>
       <c r="K43" t="n">
-        <v>336.642113073884</v>
+        <v>336.6421130738839</v>
       </c>
       <c r="L43" t="n">
-        <v>646.6900875150417</v>
+        <v>646.6900875150416</v>
       </c>
       <c r="M43" t="n">
-        <v>983.98132772395</v>
+        <v>983.9813277239498</v>
       </c>
       <c r="N43" t="n">
         <v>1318.687152545534</v>
@@ -7587,7 +7587,7 @@
         <v>1611.825859961355</v>
       </c>
       <c r="P43" t="n">
-        <v>1839.13598320328</v>
+        <v>1839.135983203279</v>
       </c>
       <c r="Q43" t="n">
         <v>1913.078649972671</v>
@@ -7596,25 +7596,25 @@
         <v>1913.078649972671</v>
       </c>
       <c r="S43" t="n">
-        <v>1720.61395783393</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.656398353473</v>
+        <v>1878.408049128092</v>
       </c>
       <c r="U43" t="n">
-        <v>1209.5510938955</v>
+        <v>1589.302744670118</v>
       </c>
       <c r="V43" t="n">
-        <v>954.866605689613</v>
+        <v>1334.618256464231</v>
       </c>
       <c r="W43" t="n">
-        <v>665.4494356526525</v>
+        <v>1045.201086427271</v>
       </c>
       <c r="X43" t="n">
-        <v>437.4598847546351</v>
+        <v>817.2115355292533</v>
       </c>
       <c r="Y43" t="n">
-        <v>216.667305611105</v>
+        <v>596.4189563857232</v>
       </c>
     </row>
     <row r="44">
@@ -7639,7 +7639,7 @@
         <v>855.3313972036599</v>
       </c>
       <c r="G44" t="n">
-        <v>440.1593205155743</v>
+        <v>440.1593205155744</v>
       </c>
       <c r="H44" t="n">
         <v>141.5554198924156</v>
@@ -7648,19 +7648,19 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J44" t="n">
-        <v>276.3093906935955</v>
+        <v>276.3093906935954</v>
       </c>
       <c r="K44" t="n">
-        <v>597.7080858612032</v>
+        <v>855.1603485090773</v>
       </c>
       <c r="L44" t="n">
-        <v>1327.278034693952</v>
+        <v>1704.27021414407</v>
       </c>
       <c r="M44" t="n">
-        <v>2288.68291164154</v>
+        <v>2665.675091091658</v>
       </c>
       <c r="N44" t="n">
-        <v>3251.01232707018</v>
+        <v>3628.004506520298</v>
       </c>
       <c r="O44" t="n">
         <v>4114.52506777933</v>
@@ -7712,13 +7712,13 @@
         <v>639.5373370222824</v>
       </c>
       <c r="E45" t="n">
-        <v>480.2998820168268</v>
+        <v>480.2998820168269</v>
       </c>
       <c r="F45" t="n">
-        <v>333.7653240437118</v>
+        <v>333.7653240437119</v>
       </c>
       <c r="G45" t="n">
-        <v>197.3489189817663</v>
+        <v>197.3489189817664</v>
       </c>
       <c r="H45" t="n">
         <v>106.3322115589798</v>
@@ -7727,28 +7727,28 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J45" t="n">
-        <v>184.4590143936093</v>
+        <v>216.6338377265969</v>
       </c>
       <c r="K45" t="n">
-        <v>414.2869325418659</v>
+        <v>446.4617558748534</v>
       </c>
       <c r="L45" t="n">
-        <v>769.6414721740672</v>
+        <v>801.8162955070546</v>
       </c>
       <c r="M45" t="n">
-        <v>1203.680327106303</v>
+        <v>1235.85515043929</v>
       </c>
       <c r="N45" t="n">
-        <v>1737.471620890736</v>
+        <v>1695.790367254409</v>
       </c>
       <c r="O45" t="n">
-        <v>2136.002693439724</v>
+        <v>2094.321439803397</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.525948037006</v>
+        <v>2394.844694400679</v>
       </c>
       <c r="Q45" t="n">
-        <v>2587.498588679581</v>
+        <v>2545.817335043254</v>
       </c>
       <c r="R45" t="n">
         <v>2587.498588679581</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>437.4598847546351</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="C46" t="n">
-        <v>437.4598847546351</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="D46" t="n">
-        <v>390.5207102955442</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="E46" t="n">
-        <v>242.6076167131511</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="F46" t="n">
         <v>95.71766921524075</v>
@@ -7806,16 +7806,16 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J46" t="n">
-        <v>137.7436613720289</v>
+        <v>137.7436613720288</v>
       </c>
       <c r="K46" t="n">
-        <v>336.642113073884</v>
+        <v>336.6421130738839</v>
       </c>
       <c r="L46" t="n">
-        <v>646.6900875150417</v>
+        <v>646.6900875150416</v>
       </c>
       <c r="M46" t="n">
-        <v>983.98132772395</v>
+        <v>983.9813277239498</v>
       </c>
       <c r="N46" t="n">
         <v>1318.687152545534</v>
@@ -7824,7 +7824,7 @@
         <v>1611.825859961355</v>
       </c>
       <c r="P46" t="n">
-        <v>1839.13598320328</v>
+        <v>1839.135983203279</v>
       </c>
       <c r="Q46" t="n">
         <v>1913.078649972671</v>
@@ -7833,25 +7833,25 @@
         <v>1913.078649972671</v>
       </c>
       <c r="S46" t="n">
-        <v>1720.61395783393</v>
+        <v>1781.312786268305</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.656398353473</v>
+        <v>1559.355226787849</v>
       </c>
       <c r="U46" t="n">
-        <v>1209.5510938955</v>
+        <v>1270.249922329876</v>
       </c>
       <c r="V46" t="n">
-        <v>954.866605689613</v>
+        <v>1015.565434123989</v>
       </c>
       <c r="W46" t="n">
-        <v>665.4494356526525</v>
+        <v>726.1482640870279</v>
       </c>
       <c r="X46" t="n">
-        <v>437.4598847546351</v>
+        <v>498.1587131890105</v>
       </c>
       <c r="Y46" t="n">
-        <v>437.4598847546351</v>
+        <v>277.3661340454805</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8312,7 +8312,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992665</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8537,7 +8537,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050814</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8695,13 +8695,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>90.70213529832193</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>90.70213529832063</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>74.60209794880339</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>74.60209794880225</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>3.419393410990438</v>
+        <v>3.419393410990466</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8938,7 +8938,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>207.1546195792579</v>
+        <v>207.1546195792586</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>74.60209794880242</v>
+        <v>74.60209794880339</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>3.419393410990438</v>
+        <v>3.419393410990466</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,13 +9163,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>25.23975550835121</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>296.9138238411135</v>
       </c>
       <c r="M17" t="n">
         <v>449.5135334928325</v>
@@ -9178,7 +9178,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>74.60209794880242</v>
+        <v>74.60209794880339</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>3.419393410990438</v>
+        <v>3.419393410990466</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>90.70213529832193</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>4.620730212330045</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>74.60209794880242</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>74.60209794880342</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>3.419393410990438</v>
+        <v>3.419393410990466</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9652,7 +9652,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>260.0527905534074</v>
+        <v>260.0527905534082</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>74.60209794880242</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>74.60209794880365</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>3.419393410990438</v>
+        <v>3.419393410990466</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>90.70213529832193</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>260.0527905534074</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>74.60209794880242</v>
+        <v>32.49982154847238</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>3.419393410990438</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>90.70213529832193</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>260.0527905534074</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>32.49982154847238</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10211,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>32.49982154847169</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10354,7 +10354,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>296.9138238411126</v>
+        <v>296.9138238411135</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
@@ -10442,16 +10442,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>74.6020979488024</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>74.6020979488037</v>
       </c>
       <c r="R33" t="n">
-        <v>3.419393410990438</v>
+        <v>3.419393410990466</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10588,25 +10588,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>90.70213529832199</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>93.95310773843912</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>32.4998215484714</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10685,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>74.6020979488037</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>3.419393410990466</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>414.8475478694867</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>4.620730212329647</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>74.60209794880242</v>
+        <v>32.49982154847238</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>3.419393410990438</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,13 +11059,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>230.5859793988973</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11074,16 +11074,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>260.0527905534074</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>32.49982154847238</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>74.60209794880257</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>3.419393410990438</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11299,10 +11299,10 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>260.0527905534084</v>
       </c>
       <c r="L44" t="n">
-        <v>296.9138238411126</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -11311,7 +11311,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>32.49982154847238</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11387,7 +11387,7 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>74.60209794880222</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>3.419393410990438</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>9.178595247005433</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I13" t="n">
-        <v>97.68290229956054</v>
+        <v>97.68290229956055</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>90.92144028388265</v>
+        <v>90.92144028388266</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,13 +23475,13 @@
         <v>286.2142514133935</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>70.60190037070734</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>151.0132804339143</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>97.68290229956054</v>
+        <v>97.68290229956055</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>63.81506508412033</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>151.0132804339143</v>
+        <v>60.09184015003234</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23910,7 +23910,7 @@
         <v>145.148367782564</v>
       </c>
       <c r="I19" t="n">
-        <v>97.68290229956054</v>
+        <v>97.68290229956055</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>90.92144028388266</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>38.78851244057755</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>97.68290229956054</v>
+        <v>97.68290229956055</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>90.92144028388265</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,10 +24183,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2142514133935</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>95.07189518638776</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>97.68290229956055</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>90.92144028388265</v>
+        <v>90.92144028388266</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24423,16 +24423,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>60.0918401500324</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>106.3633174038087</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24606,22 +24606,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>97.68290229956054</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>90.92144028388265</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>60.09184015003191</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>78.18314869998872</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>151.0132804339143</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24858,7 +24858,7 @@
         <v>145.148367782564</v>
       </c>
       <c r="I31" t="n">
-        <v>97.68290229956054</v>
+        <v>97.68290229956055</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>90.92144028388266</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>60.09184015003257</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>60.09184015003234</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25095,7 +25095,7 @@
         <v>145.148367782564</v>
       </c>
       <c r="I34" t="n">
-        <v>97.68290229956054</v>
+        <v>97.68290229956055</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>90.92144028388265</v>
+        <v>90.92144028388266</v>
       </c>
       <c r="S34" t="n">
-        <v>60.09184015003191</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>131.746155565539</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>97.68290229956054</v>
+        <v>97.68290229956055</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>90.92144028388265</v>
+        <v>90.92144028388266</v>
       </c>
       <c r="S37" t="n">
         <v>190.5400452173542</v>
@@ -25368,7 +25368,7 @@
         <v>219.7379838856521</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>274.7130129764604</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I40" t="n">
-        <v>97.68290229956054</v>
+        <v>97.68290229956055</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>90.92144028388266</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>223.7482477877624</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>60.09184015003234</v>
       </c>
     </row>
     <row r="41">
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>60.09184015003166</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25806,7 +25806,7 @@
         <v>145.148367782564</v>
       </c>
       <c r="I43" t="n">
-        <v>97.68290229956054</v>
+        <v>97.68290229956055</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>90.92144028388265</v>
+        <v>90.92144028388266</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>185.4140890495187</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26022,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>102.1456903037124</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.0700504016732</v>
@@ -26043,7 +26043,7 @@
         <v>145.148367782564</v>
       </c>
       <c r="I46" t="n">
-        <v>97.68290229956054</v>
+        <v>97.68290229956055</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>90.92144028388265</v>
+        <v>90.92144028388266</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>60.09184015003257</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>875396.298752251</v>
+        <v>875396.2987522511</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>875396.298752251</v>
+        <v>875396.2987522511</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>875396.298752251</v>
+        <v>875396.2987522511</v>
       </c>
     </row>
     <row r="14">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>554203.1946583908</v>
+      </c>
+      <c r="C2" t="n">
+        <v>554203.1946583914</v>
+      </c>
+      <c r="D2" t="n">
         <v>554203.1946583913</v>
       </c>
-      <c r="C2" t="n">
-        <v>554203.1946583913</v>
-      </c>
-      <c r="D2" t="n">
-        <v>554203.1946583909</v>
-      </c>
       <c r="E2" t="n">
+        <v>535287.5577859854</v>
+      </c>
+      <c r="F2" t="n">
         <v>535287.5577859855</v>
       </c>
-      <c r="F2" t="n">
-        <v>535287.5577859853</v>
-      </c>
       <c r="G2" t="n">
-        <v>535287.5577859853</v>
+        <v>535287.5577859854</v>
       </c>
       <c r="H2" t="n">
-        <v>535287.5577859855</v>
+        <v>535287.5577859856</v>
       </c>
       <c r="I2" t="n">
-        <v>535287.5577859855</v>
+        <v>535287.5577859854</v>
       </c>
       <c r="J2" t="n">
         <v>535287.5577859856</v>
       </c>
       <c r="K2" t="n">
+        <v>535287.5577859856</v>
+      </c>
+      <c r="L2" t="n">
         <v>535287.5577859854</v>
-      </c>
-      <c r="L2" t="n">
-        <v>535287.5577859856</v>
       </c>
       <c r="M2" t="n">
         <v>535287.5577859855</v>
       </c>
       <c r="N2" t="n">
-        <v>535287.5577859856</v>
+        <v>535287.5577859854</v>
       </c>
       <c r="O2" t="n">
-        <v>535287.5577859853</v>
+        <v>535287.5577859854</v>
       </c>
       <c r="P2" t="n">
-        <v>535287.5577859855</v>
+        <v>535287.5577859854</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>708251.0967518283</v>
+        <v>708251.0967518282</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>130130.2399694094</v>
+        <v>130130.239969409</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,46 +26420,46 @@
         <v>192206.5963924297</v>
       </c>
       <c r="C4" t="n">
-        <v>192206.5963924298</v>
+        <v>192206.5963924297</v>
       </c>
       <c r="D4" t="n">
         <v>192206.5963924297</v>
       </c>
       <c r="E4" t="n">
-        <v>23693.12563581159</v>
+        <v>23693.12563581162</v>
       </c>
       <c r="F4" t="n">
-        <v>23693.1256358116</v>
+        <v>23693.12563581162</v>
       </c>
       <c r="G4" t="n">
-        <v>23693.1256358116</v>
+        <v>23693.12563581162</v>
       </c>
       <c r="H4" t="n">
-        <v>23693.1256358116</v>
+        <v>23693.12563581162</v>
       </c>
       <c r="I4" t="n">
-        <v>23693.1256358116</v>
+        <v>23693.12563581162</v>
       </c>
       <c r="J4" t="n">
-        <v>23693.1256358116</v>
+        <v>23693.12563581162</v>
       </c>
       <c r="K4" t="n">
-        <v>23693.12563581159</v>
+        <v>23693.12563581162</v>
       </c>
       <c r="L4" t="n">
-        <v>23693.1256358116</v>
+        <v>23693.12563581162</v>
       </c>
       <c r="M4" t="n">
-        <v>23693.1256358116</v>
+        <v>23693.12563581162</v>
       </c>
       <c r="N4" t="n">
-        <v>23693.12563581159</v>
+        <v>23693.12563581161</v>
       </c>
       <c r="O4" t="n">
-        <v>23693.1256358116</v>
+        <v>23693.12563581161</v>
       </c>
       <c r="P4" t="n">
-        <v>23693.1256358116</v>
+        <v>23693.12563581162</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-310830.3590119923</v>
+        <v>-310830.3590119928</v>
       </c>
       <c r="C6" t="n">
+        <v>279137.5202025522</v>
+      </c>
+      <c r="D6" t="n">
         <v>279137.5202025521</v>
       </c>
-      <c r="D6" t="n">
-        <v>279137.5202025517</v>
-      </c>
       <c r="E6" t="n">
-        <v>-293324.957137146</v>
+        <v>-292694.4359080659</v>
       </c>
       <c r="F6" t="n">
-        <v>414926.1396146821</v>
+        <v>415556.6608437625</v>
       </c>
       <c r="G6" t="n">
-        <v>414926.1396146821</v>
+        <v>415556.6608437623</v>
       </c>
       <c r="H6" t="n">
-        <v>414926.1396146823</v>
+        <v>415556.6608437626</v>
       </c>
       <c r="I6" t="n">
-        <v>414926.1396146823</v>
+        <v>415556.6608437623</v>
       </c>
       <c r="J6" t="n">
-        <v>238502.9204220895</v>
+        <v>239133.4416511697</v>
       </c>
       <c r="K6" t="n">
-        <v>414926.1396146822</v>
+        <v>415556.6608437626</v>
       </c>
       <c r="L6" t="n">
-        <v>414926.1396146824</v>
+        <v>415556.6608437623</v>
       </c>
       <c r="M6" t="n">
-        <v>284795.8996452729</v>
+        <v>285426.4208743535</v>
       </c>
       <c r="N6" t="n">
-        <v>414926.1396146824</v>
+        <v>415556.6608437623</v>
       </c>
       <c r="O6" t="n">
-        <v>414926.1396146821</v>
+        <v>415556.6608437623</v>
       </c>
       <c r="P6" t="n">
-        <v>414926.1396146823</v>
+        <v>415556.6608437623</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>687.4987572731072</v>
+        <v>687.498757273107</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>522.1835924359538</v>
+        <v>522.1835924359519</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27393,10 +27393,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>326.2618471346671</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>2.33907437030993</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27551,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4.167450853507148</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>127.9941592285896</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>384.8551676131859</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>85.34635367328977</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27782,7 +27782,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27794,7 +27794,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>10.74592769735784</v>
+        <v>128.0571403890127</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27864,7 +27864,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27909,13 +27909,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>202.961646135951</v>
       </c>
       <c r="V8" t="n">
-        <v>2.496509910248449</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.282381593930425</v>
+        <v>4.282381593930424</v>
       </c>
       <c r="H11" t="n">
-        <v>43.85694049883998</v>
+        <v>43.85694049883996</v>
       </c>
       <c r="I11" t="n">
-        <v>165.0965164000029</v>
+        <v>165.0965164000028</v>
       </c>
       <c r="J11" t="n">
-        <v>363.4617848078527</v>
+        <v>363.4617848078526</v>
       </c>
       <c r="K11" t="n">
-        <v>544.7349976789277</v>
+        <v>544.7349976789276</v>
       </c>
       <c r="L11" t="n">
-        <v>675.7919333841761</v>
+        <v>675.7919333841759</v>
       </c>
       <c r="M11" t="n">
-        <v>751.9487370552362</v>
+        <v>751.9487370552361</v>
       </c>
       <c r="N11" t="n">
-        <v>764.1160537589911</v>
+        <v>764.1160537589909</v>
       </c>
       <c r="O11" t="n">
-        <v>721.5331217843454</v>
+        <v>721.5331217843452</v>
       </c>
       <c r="P11" t="n">
-        <v>615.8118261841879</v>
+        <v>615.8118261841878</v>
       </c>
       <c r="Q11" t="n">
-        <v>462.4490353515545</v>
+        <v>462.4490353515544</v>
       </c>
       <c r="R11" t="n">
-        <v>269.0031527997323</v>
+        <v>269.0031527997322</v>
       </c>
       <c r="S11" t="n">
-        <v>97.58477057168965</v>
+        <v>97.58477057168963</v>
       </c>
       <c r="T11" t="n">
         <v>18.74612542743044</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3425905275144339</v>
+        <v>0.3425905275144338</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.291276151884568</v>
+        <v>2.291276151884567</v>
       </c>
       <c r="H12" t="n">
-        <v>22.12890388793781</v>
+        <v>22.1289038879378</v>
       </c>
       <c r="I12" t="n">
-        <v>78.88823593111343</v>
+        <v>78.88823593111341</v>
       </c>
       <c r="J12" t="n">
-        <v>216.4753490690592</v>
+        <v>216.4753490690591</v>
       </c>
       <c r="K12" t="n">
-        <v>369.9908512453252</v>
+        <v>369.9908512453251</v>
       </c>
       <c r="L12" t="n">
         <v>497.4983592063401</v>
       </c>
       <c r="M12" t="n">
-        <v>580.5571197121556</v>
+        <v>580.5571197121554</v>
       </c>
       <c r="N12" t="n">
-        <v>595.9227391693114</v>
+        <v>595.9227391693113</v>
       </c>
       <c r="O12" t="n">
-        <v>545.1528833828165</v>
+        <v>545.1528833828164</v>
       </c>
       <c r="P12" t="n">
-        <v>437.5332504418874</v>
+        <v>437.5332504418873</v>
       </c>
       <c r="Q12" t="n">
         <v>292.4793908967038</v>
@@ -31870,7 +31870,7 @@
         <v>42.55944957557517</v>
       </c>
       <c r="T12" t="n">
-        <v>9.235450805183849</v>
+        <v>9.235450805183845</v>
       </c>
       <c r="U12" t="n">
         <v>0.150741852097669</v>
@@ -31913,43 +31913,43 @@
         <v>1.920928956785595</v>
       </c>
       <c r="H13" t="n">
-        <v>17.07880472487558</v>
+        <v>17.07880472487557</v>
       </c>
       <c r="I13" t="n">
-        <v>57.76757262769774</v>
+        <v>57.76757262769773</v>
       </c>
       <c r="J13" t="n">
         <v>135.8096772447416</v>
       </c>
       <c r="K13" t="n">
-        <v>223.1770187974537</v>
+        <v>223.1770187974536</v>
       </c>
       <c r="L13" t="n">
-        <v>285.5897469024694</v>
+        <v>285.5897469024693</v>
       </c>
       <c r="M13" t="n">
-        <v>301.1143454714002</v>
+        <v>301.1143454714001</v>
       </c>
       <c r="N13" t="n">
-        <v>293.954519359745</v>
+        <v>293.9545193597449</v>
       </c>
       <c r="O13" t="n">
         <v>271.5145765463859</v>
       </c>
       <c r="P13" t="n">
-        <v>232.3276258279596</v>
+        <v>232.3276258279595</v>
       </c>
       <c r="Q13" t="n">
-        <v>160.8516056450193</v>
+        <v>160.8516056450192</v>
       </c>
       <c r="R13" t="n">
-        <v>86.37195109328684</v>
+        <v>86.37195109328682</v>
       </c>
       <c r="S13" t="n">
         <v>33.47655281961804</v>
       </c>
       <c r="T13" t="n">
-        <v>8.207605542629359</v>
+        <v>8.207605542629357</v>
       </c>
       <c r="U13" t="n">
         <v>0.1047779430973962</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.282381593930425</v>
+        <v>4.282381593930424</v>
       </c>
       <c r="H14" t="n">
-        <v>43.85694049883998</v>
+        <v>43.85694049883996</v>
       </c>
       <c r="I14" t="n">
-        <v>165.0965164000029</v>
+        <v>165.0965164000028</v>
       </c>
       <c r="J14" t="n">
-        <v>363.4617848078527</v>
+        <v>363.4617848078526</v>
       </c>
       <c r="K14" t="n">
-        <v>544.7349976789277</v>
+        <v>544.7349976789276</v>
       </c>
       <c r="L14" t="n">
-        <v>675.7919333841761</v>
+        <v>675.7919333841759</v>
       </c>
       <c r="M14" t="n">
-        <v>751.9487370552362</v>
+        <v>751.9487370552361</v>
       </c>
       <c r="N14" t="n">
-        <v>764.1160537589911</v>
+        <v>764.1160537589909</v>
       </c>
       <c r="O14" t="n">
-        <v>721.5331217843454</v>
+        <v>721.5331217843452</v>
       </c>
       <c r="P14" t="n">
-        <v>615.8118261841879</v>
+        <v>615.8118261841878</v>
       </c>
       <c r="Q14" t="n">
-        <v>462.4490353515545</v>
+        <v>462.4490353515544</v>
       </c>
       <c r="R14" t="n">
-        <v>269.0031527997323</v>
+        <v>269.0031527997322</v>
       </c>
       <c r="S14" t="n">
-        <v>97.58477057168965</v>
+        <v>97.58477057168963</v>
       </c>
       <c r="T14" t="n">
         <v>18.74612542743044</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3425905275144339</v>
+        <v>0.3425905275144338</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.291276151884568</v>
+        <v>2.291276151884567</v>
       </c>
       <c r="H15" t="n">
-        <v>22.12890388793781</v>
+        <v>22.1289038879378</v>
       </c>
       <c r="I15" t="n">
-        <v>78.88823593111343</v>
+        <v>78.88823593111341</v>
       </c>
       <c r="J15" t="n">
-        <v>216.4753490690592</v>
+        <v>216.4753490690591</v>
       </c>
       <c r="K15" t="n">
-        <v>369.9908512453252</v>
+        <v>369.9908512453251</v>
       </c>
       <c r="L15" t="n">
         <v>497.4983592063401</v>
       </c>
       <c r="M15" t="n">
-        <v>580.5571197121556</v>
+        <v>580.5571197121554</v>
       </c>
       <c r="N15" t="n">
-        <v>595.9227391693114</v>
+        <v>595.9227391693113</v>
       </c>
       <c r="O15" t="n">
-        <v>545.1528833828165</v>
+        <v>545.1528833828164</v>
       </c>
       <c r="P15" t="n">
-        <v>437.5332504418874</v>
+        <v>437.5332504418873</v>
       </c>
       <c r="Q15" t="n">
         <v>292.4793908967038</v>
@@ -32107,7 +32107,7 @@
         <v>42.55944957557517</v>
       </c>
       <c r="T15" t="n">
-        <v>9.235450805183849</v>
+        <v>9.235450805183845</v>
       </c>
       <c r="U15" t="n">
         <v>0.150741852097669</v>
@@ -32150,43 +32150,43 @@
         <v>1.920928956785595</v>
       </c>
       <c r="H16" t="n">
-        <v>17.07880472487558</v>
+        <v>17.07880472487557</v>
       </c>
       <c r="I16" t="n">
-        <v>57.76757262769774</v>
+        <v>57.76757262769773</v>
       </c>
       <c r="J16" t="n">
         <v>135.8096772447416</v>
       </c>
       <c r="K16" t="n">
-        <v>223.1770187974537</v>
+        <v>223.1770187974536</v>
       </c>
       <c r="L16" t="n">
-        <v>285.5897469024694</v>
+        <v>285.5897469024693</v>
       </c>
       <c r="M16" t="n">
-        <v>301.1143454714002</v>
+        <v>301.1143454714001</v>
       </c>
       <c r="N16" t="n">
-        <v>293.954519359745</v>
+        <v>293.9545193597449</v>
       </c>
       <c r="O16" t="n">
         <v>271.5145765463859</v>
       </c>
       <c r="P16" t="n">
-        <v>232.3276258279596</v>
+        <v>232.3276258279595</v>
       </c>
       <c r="Q16" t="n">
-        <v>160.8516056450193</v>
+        <v>160.8516056450192</v>
       </c>
       <c r="R16" t="n">
-        <v>86.37195109328684</v>
+        <v>86.37195109328682</v>
       </c>
       <c r="S16" t="n">
         <v>33.47655281961804</v>
       </c>
       <c r="T16" t="n">
-        <v>8.207605542629359</v>
+        <v>8.207605542629357</v>
       </c>
       <c r="U16" t="n">
         <v>0.1047779430973962</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.282381593930425</v>
+        <v>4.282381593930424</v>
       </c>
       <c r="H17" t="n">
-        <v>43.85694049883998</v>
+        <v>43.85694049883996</v>
       </c>
       <c r="I17" t="n">
-        <v>165.0965164000029</v>
+        <v>165.0965164000028</v>
       </c>
       <c r="J17" t="n">
-        <v>363.4617848078527</v>
+        <v>363.4617848078526</v>
       </c>
       <c r="K17" t="n">
-        <v>544.7349976789277</v>
+        <v>544.7349976789276</v>
       </c>
       <c r="L17" t="n">
-        <v>675.7919333841761</v>
+        <v>675.7919333841759</v>
       </c>
       <c r="M17" t="n">
-        <v>751.9487370552362</v>
+        <v>751.9487370552361</v>
       </c>
       <c r="N17" t="n">
-        <v>764.1160537589911</v>
+        <v>764.1160537589909</v>
       </c>
       <c r="O17" t="n">
-        <v>721.5331217843454</v>
+        <v>721.5331217843452</v>
       </c>
       <c r="P17" t="n">
-        <v>615.8118261841879</v>
+        <v>615.8118261841878</v>
       </c>
       <c r="Q17" t="n">
-        <v>462.4490353515545</v>
+        <v>462.4490353515544</v>
       </c>
       <c r="R17" t="n">
-        <v>269.0031527997323</v>
+        <v>269.0031527997322</v>
       </c>
       <c r="S17" t="n">
-        <v>97.58477057168965</v>
+        <v>97.58477057168963</v>
       </c>
       <c r="T17" t="n">
         <v>18.74612542743044</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3425905275144339</v>
+        <v>0.3425905275144338</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.291276151884568</v>
+        <v>2.291276151884567</v>
       </c>
       <c r="H18" t="n">
-        <v>22.12890388793781</v>
+        <v>22.1289038879378</v>
       </c>
       <c r="I18" t="n">
-        <v>78.88823593111343</v>
+        <v>78.88823593111341</v>
       </c>
       <c r="J18" t="n">
-        <v>216.4753490690592</v>
+        <v>216.4753490690591</v>
       </c>
       <c r="K18" t="n">
-        <v>369.9908512453252</v>
+        <v>369.9908512453251</v>
       </c>
       <c r="L18" t="n">
         <v>497.4983592063401</v>
       </c>
       <c r="M18" t="n">
-        <v>580.5571197121556</v>
+        <v>580.5571197121554</v>
       </c>
       <c r="N18" t="n">
-        <v>595.9227391693114</v>
+        <v>595.9227391693113</v>
       </c>
       <c r="O18" t="n">
-        <v>545.1528833828165</v>
+        <v>545.1528833828164</v>
       </c>
       <c r="P18" t="n">
-        <v>437.5332504418874</v>
+        <v>437.5332504418873</v>
       </c>
       <c r="Q18" t="n">
         <v>292.4793908967038</v>
@@ -32344,7 +32344,7 @@
         <v>42.55944957557517</v>
       </c>
       <c r="T18" t="n">
-        <v>9.235450805183849</v>
+        <v>9.235450805183845</v>
       </c>
       <c r="U18" t="n">
         <v>0.150741852097669</v>
@@ -32387,43 +32387,43 @@
         <v>1.920928956785595</v>
       </c>
       <c r="H19" t="n">
-        <v>17.07880472487558</v>
+        <v>17.07880472487557</v>
       </c>
       <c r="I19" t="n">
-        <v>57.76757262769774</v>
+        <v>57.76757262769773</v>
       </c>
       <c r="J19" t="n">
         <v>135.8096772447416</v>
       </c>
       <c r="K19" t="n">
-        <v>223.1770187974537</v>
+        <v>223.1770187974536</v>
       </c>
       <c r="L19" t="n">
-        <v>285.5897469024694</v>
+        <v>285.5897469024693</v>
       </c>
       <c r="M19" t="n">
-        <v>301.1143454714002</v>
+        <v>301.1143454714001</v>
       </c>
       <c r="N19" t="n">
-        <v>293.954519359745</v>
+        <v>293.9545193597449</v>
       </c>
       <c r="O19" t="n">
         <v>271.5145765463859</v>
       </c>
       <c r="P19" t="n">
-        <v>232.3276258279596</v>
+        <v>232.3276258279595</v>
       </c>
       <c r="Q19" t="n">
-        <v>160.8516056450193</v>
+        <v>160.8516056450192</v>
       </c>
       <c r="R19" t="n">
-        <v>86.37195109328684</v>
+        <v>86.37195109328682</v>
       </c>
       <c r="S19" t="n">
         <v>33.47655281961804</v>
       </c>
       <c r="T19" t="n">
-        <v>8.207605542629359</v>
+        <v>8.207605542629357</v>
       </c>
       <c r="U19" t="n">
         <v>0.1047779430973962</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.282381593930425</v>
+        <v>4.282381593930424</v>
       </c>
       <c r="H20" t="n">
-        <v>43.85694049883998</v>
+        <v>43.85694049883996</v>
       </c>
       <c r="I20" t="n">
-        <v>165.0965164000029</v>
+        <v>165.0965164000028</v>
       </c>
       <c r="J20" t="n">
-        <v>363.4617848078527</v>
+        <v>363.4617848078526</v>
       </c>
       <c r="K20" t="n">
-        <v>544.7349976789277</v>
+        <v>544.7349976789276</v>
       </c>
       <c r="L20" t="n">
-        <v>675.7919333841761</v>
+        <v>675.7919333841759</v>
       </c>
       <c r="M20" t="n">
-        <v>751.9487370552362</v>
+        <v>751.9487370552361</v>
       </c>
       <c r="N20" t="n">
-        <v>764.1160537589911</v>
+        <v>764.1160537589909</v>
       </c>
       <c r="O20" t="n">
-        <v>721.5331217843454</v>
+        <v>721.5331217843452</v>
       </c>
       <c r="P20" t="n">
-        <v>615.8118261841879</v>
+        <v>615.8118261841878</v>
       </c>
       <c r="Q20" t="n">
-        <v>462.4490353515545</v>
+        <v>462.4490353515544</v>
       </c>
       <c r="R20" t="n">
-        <v>269.0031527997323</v>
+        <v>269.0031527997322</v>
       </c>
       <c r="S20" t="n">
-        <v>97.58477057168965</v>
+        <v>97.58477057168963</v>
       </c>
       <c r="T20" t="n">
         <v>18.74612542743044</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3425905275144339</v>
+        <v>0.3425905275144338</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,34 +32542,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.291276151884568</v>
+        <v>2.291276151884567</v>
       </c>
       <c r="H21" t="n">
-        <v>22.12890388793781</v>
+        <v>22.1289038879378</v>
       </c>
       <c r="I21" t="n">
-        <v>78.88823593111343</v>
+        <v>78.88823593111341</v>
       </c>
       <c r="J21" t="n">
-        <v>216.4753490690592</v>
+        <v>216.4753490690591</v>
       </c>
       <c r="K21" t="n">
-        <v>369.9908512453252</v>
+        <v>369.9908512453251</v>
       </c>
       <c r="L21" t="n">
         <v>497.4983592063401</v>
       </c>
       <c r="M21" t="n">
-        <v>580.5571197121556</v>
+        <v>580.5571197121554</v>
       </c>
       <c r="N21" t="n">
-        <v>595.9227391693114</v>
+        <v>595.9227391693113</v>
       </c>
       <c r="O21" t="n">
-        <v>545.1528833828165</v>
+        <v>545.1528833828164</v>
       </c>
       <c r="P21" t="n">
-        <v>437.5332504418874</v>
+        <v>437.5332504418873</v>
       </c>
       <c r="Q21" t="n">
         <v>292.4793908967038</v>
@@ -32581,7 +32581,7 @@
         <v>42.55944957557517</v>
       </c>
       <c r="T21" t="n">
-        <v>9.235450805183849</v>
+        <v>9.235450805183845</v>
       </c>
       <c r="U21" t="n">
         <v>0.150741852097669</v>
@@ -32624,43 +32624,43 @@
         <v>1.920928956785595</v>
       </c>
       <c r="H22" t="n">
-        <v>17.07880472487558</v>
+        <v>17.07880472487557</v>
       </c>
       <c r="I22" t="n">
-        <v>57.76757262769774</v>
+        <v>57.76757262769773</v>
       </c>
       <c r="J22" t="n">
         <v>135.8096772447416</v>
       </c>
       <c r="K22" t="n">
-        <v>223.1770187974537</v>
+        <v>223.1770187974536</v>
       </c>
       <c r="L22" t="n">
-        <v>285.5897469024694</v>
+        <v>285.5897469024693</v>
       </c>
       <c r="M22" t="n">
-        <v>301.1143454714002</v>
+        <v>301.1143454714001</v>
       </c>
       <c r="N22" t="n">
-        <v>293.954519359745</v>
+        <v>293.9545193597449</v>
       </c>
       <c r="O22" t="n">
         <v>271.5145765463859</v>
       </c>
       <c r="P22" t="n">
-        <v>232.3276258279596</v>
+        <v>232.3276258279595</v>
       </c>
       <c r="Q22" t="n">
-        <v>160.8516056450193</v>
+        <v>160.8516056450192</v>
       </c>
       <c r="R22" t="n">
-        <v>86.37195109328684</v>
+        <v>86.37195109328682</v>
       </c>
       <c r="S22" t="n">
         <v>33.47655281961804</v>
       </c>
       <c r="T22" t="n">
-        <v>8.207605542629359</v>
+        <v>8.207605542629357</v>
       </c>
       <c r="U22" t="n">
         <v>0.1047779430973962</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.282381593930425</v>
+        <v>4.282381593930424</v>
       </c>
       <c r="H23" t="n">
-        <v>43.85694049883998</v>
+        <v>43.85694049883996</v>
       </c>
       <c r="I23" t="n">
-        <v>165.0965164000029</v>
+        <v>165.0965164000028</v>
       </c>
       <c r="J23" t="n">
-        <v>363.4617848078527</v>
+        <v>363.4617848078526</v>
       </c>
       <c r="K23" t="n">
-        <v>544.7349976789277</v>
+        <v>544.7349976789276</v>
       </c>
       <c r="L23" t="n">
-        <v>675.7919333841761</v>
+        <v>675.7919333841759</v>
       </c>
       <c r="M23" t="n">
-        <v>751.9487370552362</v>
+        <v>751.9487370552361</v>
       </c>
       <c r="N23" t="n">
-        <v>764.1160537589911</v>
+        <v>764.1160537589909</v>
       </c>
       <c r="O23" t="n">
-        <v>721.5331217843454</v>
+        <v>721.5331217843452</v>
       </c>
       <c r="P23" t="n">
-        <v>615.8118261841879</v>
+        <v>615.8118261841878</v>
       </c>
       <c r="Q23" t="n">
-        <v>462.4490353515545</v>
+        <v>462.4490353515544</v>
       </c>
       <c r="R23" t="n">
-        <v>269.0031527997323</v>
+        <v>269.0031527997322</v>
       </c>
       <c r="S23" t="n">
-        <v>97.58477057168965</v>
+        <v>97.58477057168963</v>
       </c>
       <c r="T23" t="n">
         <v>18.74612542743044</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3425905275144339</v>
+        <v>0.3425905275144338</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,34 +32779,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.291276151884568</v>
+        <v>2.291276151884567</v>
       </c>
       <c r="H24" t="n">
-        <v>22.12890388793781</v>
+        <v>22.1289038879378</v>
       </c>
       <c r="I24" t="n">
-        <v>78.88823593111343</v>
+        <v>78.88823593111341</v>
       </c>
       <c r="J24" t="n">
-        <v>216.4753490690592</v>
+        <v>216.4753490690591</v>
       </c>
       <c r="K24" t="n">
-        <v>369.9908512453252</v>
+        <v>369.9908512453251</v>
       </c>
       <c r="L24" t="n">
         <v>497.4983592063401</v>
       </c>
       <c r="M24" t="n">
-        <v>580.5571197121556</v>
+        <v>580.5571197121554</v>
       </c>
       <c r="N24" t="n">
-        <v>595.9227391693114</v>
+        <v>595.9227391693113</v>
       </c>
       <c r="O24" t="n">
-        <v>545.1528833828165</v>
+        <v>545.1528833828164</v>
       </c>
       <c r="P24" t="n">
-        <v>437.5332504418874</v>
+        <v>437.5332504418873</v>
       </c>
       <c r="Q24" t="n">
         <v>292.4793908967038</v>
@@ -32818,7 +32818,7 @@
         <v>42.55944957557517</v>
       </c>
       <c r="T24" t="n">
-        <v>9.235450805183849</v>
+        <v>9.235450805183845</v>
       </c>
       <c r="U24" t="n">
         <v>0.150741852097669</v>
@@ -32861,43 +32861,43 @@
         <v>1.920928956785595</v>
       </c>
       <c r="H25" t="n">
-        <v>17.07880472487558</v>
+        <v>17.07880472487557</v>
       </c>
       <c r="I25" t="n">
-        <v>57.76757262769774</v>
+        <v>57.76757262769773</v>
       </c>
       <c r="J25" t="n">
         <v>135.8096772447416</v>
       </c>
       <c r="K25" t="n">
-        <v>223.1770187974537</v>
+        <v>223.1770187974536</v>
       </c>
       <c r="L25" t="n">
-        <v>285.5897469024694</v>
+        <v>285.5897469024693</v>
       </c>
       <c r="M25" t="n">
-        <v>301.1143454714002</v>
+        <v>301.1143454714001</v>
       </c>
       <c r="N25" t="n">
-        <v>293.954519359745</v>
+        <v>293.9545193597449</v>
       </c>
       <c r="O25" t="n">
         <v>271.5145765463859</v>
       </c>
       <c r="P25" t="n">
-        <v>232.3276258279596</v>
+        <v>232.3276258279595</v>
       </c>
       <c r="Q25" t="n">
-        <v>160.8516056450193</v>
+        <v>160.8516056450192</v>
       </c>
       <c r="R25" t="n">
-        <v>86.37195109328684</v>
+        <v>86.37195109328682</v>
       </c>
       <c r="S25" t="n">
         <v>33.47655281961804</v>
       </c>
       <c r="T25" t="n">
-        <v>8.207605542629359</v>
+        <v>8.207605542629357</v>
       </c>
       <c r="U25" t="n">
         <v>0.1047779430973962</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.282381593930425</v>
+        <v>4.282381593930424</v>
       </c>
       <c r="H26" t="n">
-        <v>43.85694049883998</v>
+        <v>43.85694049883996</v>
       </c>
       <c r="I26" t="n">
-        <v>165.0965164000029</v>
+        <v>165.0965164000028</v>
       </c>
       <c r="J26" t="n">
-        <v>363.4617848078527</v>
+        <v>363.4617848078526</v>
       </c>
       <c r="K26" t="n">
-        <v>544.7349976789277</v>
+        <v>544.7349976789276</v>
       </c>
       <c r="L26" t="n">
-        <v>675.7919333841761</v>
+        <v>675.7919333841759</v>
       </c>
       <c r="M26" t="n">
-        <v>751.9487370552362</v>
+        <v>751.9487370552361</v>
       </c>
       <c r="N26" t="n">
-        <v>764.1160537589911</v>
+        <v>764.1160537589909</v>
       </c>
       <c r="O26" t="n">
-        <v>721.5331217843454</v>
+        <v>721.5331217843452</v>
       </c>
       <c r="P26" t="n">
-        <v>615.8118261841879</v>
+        <v>615.8118261841878</v>
       </c>
       <c r="Q26" t="n">
-        <v>462.4490353515545</v>
+        <v>462.4490353515544</v>
       </c>
       <c r="R26" t="n">
-        <v>269.0031527997323</v>
+        <v>269.0031527997322</v>
       </c>
       <c r="S26" t="n">
-        <v>97.58477057168965</v>
+        <v>97.58477057168963</v>
       </c>
       <c r="T26" t="n">
         <v>18.74612542743044</v>
       </c>
       <c r="U26" t="n">
-        <v>0.3425905275144339</v>
+        <v>0.3425905275144338</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,34 +33016,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.291276151884568</v>
+        <v>2.291276151884567</v>
       </c>
       <c r="H27" t="n">
-        <v>22.12890388793781</v>
+        <v>22.1289038879378</v>
       </c>
       <c r="I27" t="n">
-        <v>78.88823593111343</v>
+        <v>78.88823593111341</v>
       </c>
       <c r="J27" t="n">
-        <v>216.4753490690592</v>
+        <v>216.4753490690591</v>
       </c>
       <c r="K27" t="n">
-        <v>369.9908512453252</v>
+        <v>369.9908512453251</v>
       </c>
       <c r="L27" t="n">
         <v>497.4983592063401</v>
       </c>
       <c r="M27" t="n">
-        <v>580.5571197121556</v>
+        <v>580.5571197121554</v>
       </c>
       <c r="N27" t="n">
-        <v>595.9227391693114</v>
+        <v>595.9227391693113</v>
       </c>
       <c r="O27" t="n">
-        <v>545.1528833828165</v>
+        <v>545.1528833828164</v>
       </c>
       <c r="P27" t="n">
-        <v>437.5332504418874</v>
+        <v>437.5332504418873</v>
       </c>
       <c r="Q27" t="n">
         <v>292.4793908967038</v>
@@ -33055,7 +33055,7 @@
         <v>42.55944957557517</v>
       </c>
       <c r="T27" t="n">
-        <v>9.235450805183849</v>
+        <v>9.235450805183845</v>
       </c>
       <c r="U27" t="n">
         <v>0.150741852097669</v>
@@ -33098,43 +33098,43 @@
         <v>1.920928956785595</v>
       </c>
       <c r="H28" t="n">
-        <v>17.07880472487558</v>
+        <v>17.07880472487557</v>
       </c>
       <c r="I28" t="n">
-        <v>57.76757262769774</v>
+        <v>57.76757262769773</v>
       </c>
       <c r="J28" t="n">
         <v>135.8096772447416</v>
       </c>
       <c r="K28" t="n">
-        <v>223.1770187974537</v>
+        <v>223.1770187974536</v>
       </c>
       <c r="L28" t="n">
-        <v>285.5897469024694</v>
+        <v>285.5897469024693</v>
       </c>
       <c r="M28" t="n">
-        <v>301.1143454714002</v>
+        <v>301.1143454714001</v>
       </c>
       <c r="N28" t="n">
-        <v>293.954519359745</v>
+        <v>293.9545193597449</v>
       </c>
       <c r="O28" t="n">
         <v>271.5145765463859</v>
       </c>
       <c r="P28" t="n">
-        <v>232.3276258279596</v>
+        <v>232.3276258279595</v>
       </c>
       <c r="Q28" t="n">
-        <v>160.8516056450193</v>
+        <v>160.8516056450192</v>
       </c>
       <c r="R28" t="n">
-        <v>86.37195109328684</v>
+        <v>86.37195109328682</v>
       </c>
       <c r="S28" t="n">
         <v>33.47655281961804</v>
       </c>
       <c r="T28" t="n">
-        <v>8.207605542629359</v>
+        <v>8.207605542629357</v>
       </c>
       <c r="U28" t="n">
         <v>0.1047779430973962</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.282381593930425</v>
+        <v>4.282381593930424</v>
       </c>
       <c r="H29" t="n">
-        <v>43.85694049883998</v>
+        <v>43.85694049883996</v>
       </c>
       <c r="I29" t="n">
-        <v>165.0965164000029</v>
+        <v>165.0965164000028</v>
       </c>
       <c r="J29" t="n">
-        <v>363.4617848078527</v>
+        <v>363.4617848078526</v>
       </c>
       <c r="K29" t="n">
-        <v>544.7349976789277</v>
+        <v>544.7349976789276</v>
       </c>
       <c r="L29" t="n">
-        <v>675.7919333841761</v>
+        <v>675.7919333841759</v>
       </c>
       <c r="M29" t="n">
-        <v>751.9487370552362</v>
+        <v>751.9487370552361</v>
       </c>
       <c r="N29" t="n">
-        <v>764.1160537589911</v>
+        <v>764.1160537589909</v>
       </c>
       <c r="O29" t="n">
-        <v>721.5331217843454</v>
+        <v>721.5331217843452</v>
       </c>
       <c r="P29" t="n">
-        <v>615.8118261841879</v>
+        <v>615.8118261841878</v>
       </c>
       <c r="Q29" t="n">
-        <v>462.4490353515545</v>
+        <v>462.4490353515544</v>
       </c>
       <c r="R29" t="n">
-        <v>269.0031527997323</v>
+        <v>269.0031527997322</v>
       </c>
       <c r="S29" t="n">
-        <v>97.58477057168965</v>
+        <v>97.58477057168963</v>
       </c>
       <c r="T29" t="n">
         <v>18.74612542743044</v>
       </c>
       <c r="U29" t="n">
-        <v>0.3425905275144339</v>
+        <v>0.3425905275144338</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,34 +33253,34 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.291276151884568</v>
+        <v>2.291276151884567</v>
       </c>
       <c r="H30" t="n">
-        <v>22.12890388793781</v>
+        <v>22.1289038879378</v>
       </c>
       <c r="I30" t="n">
-        <v>78.88823593111343</v>
+        <v>78.88823593111341</v>
       </c>
       <c r="J30" t="n">
-        <v>216.4753490690592</v>
+        <v>216.4753490690591</v>
       </c>
       <c r="K30" t="n">
-        <v>369.9908512453252</v>
+        <v>369.9908512453251</v>
       </c>
       <c r="L30" t="n">
         <v>497.4983592063401</v>
       </c>
       <c r="M30" t="n">
-        <v>580.5571197121556</v>
+        <v>580.5571197121554</v>
       </c>
       <c r="N30" t="n">
-        <v>595.9227391693114</v>
+        <v>595.9227391693113</v>
       </c>
       <c r="O30" t="n">
-        <v>545.1528833828165</v>
+        <v>545.1528833828164</v>
       </c>
       <c r="P30" t="n">
-        <v>437.5332504418874</v>
+        <v>437.5332504418873</v>
       </c>
       <c r="Q30" t="n">
         <v>292.4793908967038</v>
@@ -33292,7 +33292,7 @@
         <v>42.55944957557517</v>
       </c>
       <c r="T30" t="n">
-        <v>9.235450805183849</v>
+        <v>9.235450805183845</v>
       </c>
       <c r="U30" t="n">
         <v>0.150741852097669</v>
@@ -33335,43 +33335,43 @@
         <v>1.920928956785595</v>
       </c>
       <c r="H31" t="n">
-        <v>17.07880472487558</v>
+        <v>17.07880472487557</v>
       </c>
       <c r="I31" t="n">
-        <v>57.76757262769774</v>
+        <v>57.76757262769773</v>
       </c>
       <c r="J31" t="n">
         <v>135.8096772447416</v>
       </c>
       <c r="K31" t="n">
-        <v>223.1770187974537</v>
+        <v>223.1770187974536</v>
       </c>
       <c r="L31" t="n">
-        <v>285.5897469024694</v>
+        <v>285.5897469024693</v>
       </c>
       <c r="M31" t="n">
-        <v>301.1143454714002</v>
+        <v>301.1143454714001</v>
       </c>
       <c r="N31" t="n">
-        <v>293.954519359745</v>
+        <v>293.9545193597449</v>
       </c>
       <c r="O31" t="n">
         <v>271.5145765463859</v>
       </c>
       <c r="P31" t="n">
-        <v>232.3276258279596</v>
+        <v>232.3276258279595</v>
       </c>
       <c r="Q31" t="n">
-        <v>160.8516056450193</v>
+        <v>160.8516056450192</v>
       </c>
       <c r="R31" t="n">
-        <v>86.37195109328684</v>
+        <v>86.37195109328682</v>
       </c>
       <c r="S31" t="n">
         <v>33.47655281961804</v>
       </c>
       <c r="T31" t="n">
-        <v>8.207605542629359</v>
+        <v>8.207605542629357</v>
       </c>
       <c r="U31" t="n">
         <v>0.1047779430973962</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.282381593930425</v>
+        <v>4.282381593930424</v>
       </c>
       <c r="H32" t="n">
-        <v>43.85694049883998</v>
+        <v>43.85694049883996</v>
       </c>
       <c r="I32" t="n">
-        <v>165.0965164000029</v>
+        <v>165.0965164000028</v>
       </c>
       <c r="J32" t="n">
-        <v>363.4617848078527</v>
+        <v>363.4617848078526</v>
       </c>
       <c r="K32" t="n">
-        <v>544.7349976789277</v>
+        <v>544.7349976789276</v>
       </c>
       <c r="L32" t="n">
-        <v>675.7919333841761</v>
+        <v>675.7919333841759</v>
       </c>
       <c r="M32" t="n">
-        <v>751.9487370552362</v>
+        <v>751.9487370552361</v>
       </c>
       <c r="N32" t="n">
-        <v>764.1160537589911</v>
+        <v>764.1160537589909</v>
       </c>
       <c r="O32" t="n">
-        <v>721.5331217843454</v>
+        <v>721.5331217843452</v>
       </c>
       <c r="P32" t="n">
-        <v>615.8118261841879</v>
+        <v>615.8118261841878</v>
       </c>
       <c r="Q32" t="n">
-        <v>462.4490353515545</v>
+        <v>462.4490353515544</v>
       </c>
       <c r="R32" t="n">
-        <v>269.0031527997323</v>
+        <v>269.0031527997322</v>
       </c>
       <c r="S32" t="n">
-        <v>97.58477057168965</v>
+        <v>97.58477057168963</v>
       </c>
       <c r="T32" t="n">
         <v>18.74612542743044</v>
       </c>
       <c r="U32" t="n">
-        <v>0.3425905275144339</v>
+        <v>0.3425905275144338</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,34 +33490,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.291276151884568</v>
+        <v>2.291276151884567</v>
       </c>
       <c r="H33" t="n">
-        <v>22.12890388793781</v>
+        <v>22.1289038879378</v>
       </c>
       <c r="I33" t="n">
-        <v>78.88823593111343</v>
+        <v>78.88823593111341</v>
       </c>
       <c r="J33" t="n">
-        <v>216.4753490690592</v>
+        <v>216.4753490690591</v>
       </c>
       <c r="K33" t="n">
-        <v>369.9908512453252</v>
+        <v>369.9908512453251</v>
       </c>
       <c r="L33" t="n">
         <v>497.4983592063401</v>
       </c>
       <c r="M33" t="n">
-        <v>580.5571197121556</v>
+        <v>580.5571197121554</v>
       </c>
       <c r="N33" t="n">
-        <v>595.9227391693114</v>
+        <v>595.9227391693113</v>
       </c>
       <c r="O33" t="n">
-        <v>545.1528833828165</v>
+        <v>545.1528833828164</v>
       </c>
       <c r="P33" t="n">
-        <v>437.5332504418874</v>
+        <v>437.5332504418873</v>
       </c>
       <c r="Q33" t="n">
         <v>292.4793908967038</v>
@@ -33529,7 +33529,7 @@
         <v>42.55944957557517</v>
       </c>
       <c r="T33" t="n">
-        <v>9.235450805183849</v>
+        <v>9.235450805183845</v>
       </c>
       <c r="U33" t="n">
         <v>0.150741852097669</v>
@@ -33572,43 +33572,43 @@
         <v>1.920928956785595</v>
       </c>
       <c r="H34" t="n">
-        <v>17.07880472487558</v>
+        <v>17.07880472487557</v>
       </c>
       <c r="I34" t="n">
-        <v>57.76757262769774</v>
+        <v>57.76757262769773</v>
       </c>
       <c r="J34" t="n">
         <v>135.8096772447416</v>
       </c>
       <c r="K34" t="n">
-        <v>223.1770187974537</v>
+        <v>223.1770187974536</v>
       </c>
       <c r="L34" t="n">
-        <v>285.5897469024694</v>
+        <v>285.5897469024693</v>
       </c>
       <c r="M34" t="n">
-        <v>301.1143454714002</v>
+        <v>301.1143454714001</v>
       </c>
       <c r="N34" t="n">
-        <v>293.954519359745</v>
+        <v>293.9545193597449</v>
       </c>
       <c r="O34" t="n">
         <v>271.5145765463859</v>
       </c>
       <c r="P34" t="n">
-        <v>232.3276258279596</v>
+        <v>232.3276258279595</v>
       </c>
       <c r="Q34" t="n">
-        <v>160.8516056450193</v>
+        <v>160.8516056450192</v>
       </c>
       <c r="R34" t="n">
-        <v>86.37195109328684</v>
+        <v>86.37195109328682</v>
       </c>
       <c r="S34" t="n">
         <v>33.47655281961804</v>
       </c>
       <c r="T34" t="n">
-        <v>8.207605542629359</v>
+        <v>8.207605542629357</v>
       </c>
       <c r="U34" t="n">
         <v>0.1047779430973962</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.282381593930425</v>
+        <v>4.282381593930424</v>
       </c>
       <c r="H35" t="n">
-        <v>43.85694049883998</v>
+        <v>43.85694049883996</v>
       </c>
       <c r="I35" t="n">
-        <v>165.0965164000029</v>
+        <v>165.0965164000028</v>
       </c>
       <c r="J35" t="n">
-        <v>363.4617848078527</v>
+        <v>363.4617848078526</v>
       </c>
       <c r="K35" t="n">
-        <v>544.7349976789277</v>
+        <v>544.7349976789276</v>
       </c>
       <c r="L35" t="n">
-        <v>675.7919333841761</v>
+        <v>675.7919333841759</v>
       </c>
       <c r="M35" t="n">
-        <v>751.9487370552362</v>
+        <v>751.9487370552361</v>
       </c>
       <c r="N35" t="n">
-        <v>764.1160537589911</v>
+        <v>764.1160537589909</v>
       </c>
       <c r="O35" t="n">
-        <v>721.5331217843454</v>
+        <v>721.5331217843452</v>
       </c>
       <c r="P35" t="n">
-        <v>615.8118261841879</v>
+        <v>615.8118261841878</v>
       </c>
       <c r="Q35" t="n">
-        <v>462.4490353515545</v>
+        <v>462.4490353515544</v>
       </c>
       <c r="R35" t="n">
-        <v>269.0031527997323</v>
+        <v>269.0031527997322</v>
       </c>
       <c r="S35" t="n">
-        <v>97.58477057168965</v>
+        <v>97.58477057168963</v>
       </c>
       <c r="T35" t="n">
         <v>18.74612542743044</v>
       </c>
       <c r="U35" t="n">
-        <v>0.3425905275144339</v>
+        <v>0.3425905275144338</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,34 +33727,34 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.291276151884568</v>
+        <v>2.291276151884567</v>
       </c>
       <c r="H36" t="n">
-        <v>22.12890388793781</v>
+        <v>22.1289038879378</v>
       </c>
       <c r="I36" t="n">
-        <v>78.88823593111343</v>
+        <v>78.88823593111341</v>
       </c>
       <c r="J36" t="n">
-        <v>216.4753490690592</v>
+        <v>216.4753490690591</v>
       </c>
       <c r="K36" t="n">
-        <v>369.9908512453252</v>
+        <v>369.9908512453251</v>
       </c>
       <c r="L36" t="n">
         <v>497.4983592063401</v>
       </c>
       <c r="M36" t="n">
-        <v>580.5571197121556</v>
+        <v>580.5571197121554</v>
       </c>
       <c r="N36" t="n">
-        <v>595.9227391693114</v>
+        <v>595.9227391693113</v>
       </c>
       <c r="O36" t="n">
-        <v>545.1528833828165</v>
+        <v>545.1528833828164</v>
       </c>
       <c r="P36" t="n">
-        <v>437.5332504418874</v>
+        <v>437.5332504418873</v>
       </c>
       <c r="Q36" t="n">
         <v>292.4793908967038</v>
@@ -33766,7 +33766,7 @@
         <v>42.55944957557517</v>
       </c>
       <c r="T36" t="n">
-        <v>9.235450805183849</v>
+        <v>9.235450805183845</v>
       </c>
       <c r="U36" t="n">
         <v>0.150741852097669</v>
@@ -33809,43 +33809,43 @@
         <v>1.920928956785595</v>
       </c>
       <c r="H37" t="n">
-        <v>17.07880472487558</v>
+        <v>17.07880472487557</v>
       </c>
       <c r="I37" t="n">
-        <v>57.76757262769774</v>
+        <v>57.76757262769773</v>
       </c>
       <c r="J37" t="n">
         <v>135.8096772447416</v>
       </c>
       <c r="K37" t="n">
-        <v>223.1770187974537</v>
+        <v>223.1770187974536</v>
       </c>
       <c r="L37" t="n">
-        <v>285.5897469024694</v>
+        <v>285.5897469024693</v>
       </c>
       <c r="M37" t="n">
-        <v>301.1143454714002</v>
+        <v>301.1143454714001</v>
       </c>
       <c r="N37" t="n">
-        <v>293.954519359745</v>
+        <v>293.9545193597449</v>
       </c>
       <c r="O37" t="n">
         <v>271.5145765463859</v>
       </c>
       <c r="P37" t="n">
-        <v>232.3276258279596</v>
+        <v>232.3276258279595</v>
       </c>
       <c r="Q37" t="n">
-        <v>160.8516056450193</v>
+        <v>160.8516056450192</v>
       </c>
       <c r="R37" t="n">
-        <v>86.37195109328684</v>
+        <v>86.37195109328682</v>
       </c>
       <c r="S37" t="n">
         <v>33.47655281961804</v>
       </c>
       <c r="T37" t="n">
-        <v>8.207605542629359</v>
+        <v>8.207605542629357</v>
       </c>
       <c r="U37" t="n">
         <v>0.1047779430973962</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.282381593930425</v>
+        <v>4.282381593930424</v>
       </c>
       <c r="H38" t="n">
-        <v>43.85694049883998</v>
+        <v>43.85694049883996</v>
       </c>
       <c r="I38" t="n">
-        <v>165.0965164000029</v>
+        <v>165.0965164000028</v>
       </c>
       <c r="J38" t="n">
-        <v>363.4617848078527</v>
+        <v>363.4617848078526</v>
       </c>
       <c r="K38" t="n">
-        <v>544.7349976789277</v>
+        <v>544.7349976789276</v>
       </c>
       <c r="L38" t="n">
-        <v>675.7919333841761</v>
+        <v>675.7919333841759</v>
       </c>
       <c r="M38" t="n">
-        <v>751.9487370552362</v>
+        <v>751.9487370552361</v>
       </c>
       <c r="N38" t="n">
-        <v>764.1160537589911</v>
+        <v>764.1160537589909</v>
       </c>
       <c r="O38" t="n">
-        <v>721.5331217843454</v>
+        <v>721.5331217843452</v>
       </c>
       <c r="P38" t="n">
-        <v>615.8118261841879</v>
+        <v>615.8118261841878</v>
       </c>
       <c r="Q38" t="n">
-        <v>462.4490353515545</v>
+        <v>462.4490353515544</v>
       </c>
       <c r="R38" t="n">
-        <v>269.0031527997323</v>
+        <v>269.0031527997322</v>
       </c>
       <c r="S38" t="n">
-        <v>97.58477057168965</v>
+        <v>97.58477057168963</v>
       </c>
       <c r="T38" t="n">
         <v>18.74612542743044</v>
       </c>
       <c r="U38" t="n">
-        <v>0.3425905275144339</v>
+        <v>0.3425905275144338</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,34 +33964,34 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.291276151884568</v>
+        <v>2.291276151884567</v>
       </c>
       <c r="H39" t="n">
-        <v>22.12890388793781</v>
+        <v>22.1289038879378</v>
       </c>
       <c r="I39" t="n">
-        <v>78.88823593111343</v>
+        <v>78.88823593111341</v>
       </c>
       <c r="J39" t="n">
-        <v>216.4753490690592</v>
+        <v>216.4753490690591</v>
       </c>
       <c r="K39" t="n">
-        <v>369.9908512453252</v>
+        <v>369.9908512453251</v>
       </c>
       <c r="L39" t="n">
         <v>497.4983592063401</v>
       </c>
       <c r="M39" t="n">
-        <v>580.5571197121556</v>
+        <v>580.5571197121554</v>
       </c>
       <c r="N39" t="n">
-        <v>595.9227391693114</v>
+        <v>595.9227391693113</v>
       </c>
       <c r="O39" t="n">
-        <v>545.1528833828165</v>
+        <v>545.1528833828164</v>
       </c>
       <c r="P39" t="n">
-        <v>437.5332504418874</v>
+        <v>437.5332504418873</v>
       </c>
       <c r="Q39" t="n">
         <v>292.4793908967038</v>
@@ -34003,7 +34003,7 @@
         <v>42.55944957557517</v>
       </c>
       <c r="T39" t="n">
-        <v>9.235450805183849</v>
+        <v>9.235450805183845</v>
       </c>
       <c r="U39" t="n">
         <v>0.150741852097669</v>
@@ -34046,43 +34046,43 @@
         <v>1.920928956785595</v>
       </c>
       <c r="H40" t="n">
-        <v>17.07880472487558</v>
+        <v>17.07880472487557</v>
       </c>
       <c r="I40" t="n">
-        <v>57.76757262769774</v>
+        <v>57.76757262769773</v>
       </c>
       <c r="J40" t="n">
         <v>135.8096772447416</v>
       </c>
       <c r="K40" t="n">
-        <v>223.1770187974537</v>
+        <v>223.1770187974536</v>
       </c>
       <c r="L40" t="n">
-        <v>285.5897469024694</v>
+        <v>285.5897469024693</v>
       </c>
       <c r="M40" t="n">
-        <v>301.1143454714002</v>
+        <v>301.1143454714001</v>
       </c>
       <c r="N40" t="n">
-        <v>293.954519359745</v>
+        <v>293.9545193597449</v>
       </c>
       <c r="O40" t="n">
         <v>271.5145765463859</v>
       </c>
       <c r="P40" t="n">
-        <v>232.3276258279596</v>
+        <v>232.3276258279595</v>
       </c>
       <c r="Q40" t="n">
-        <v>160.8516056450193</v>
+        <v>160.8516056450192</v>
       </c>
       <c r="R40" t="n">
-        <v>86.37195109328684</v>
+        <v>86.37195109328682</v>
       </c>
       <c r="S40" t="n">
         <v>33.47655281961804</v>
       </c>
       <c r="T40" t="n">
-        <v>8.207605542629359</v>
+        <v>8.207605542629357</v>
       </c>
       <c r="U40" t="n">
         <v>0.1047779430973962</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.282381593930425</v>
+        <v>4.282381593930424</v>
       </c>
       <c r="H41" t="n">
-        <v>43.85694049883998</v>
+        <v>43.85694049883996</v>
       </c>
       <c r="I41" t="n">
-        <v>165.0965164000029</v>
+        <v>165.0965164000028</v>
       </c>
       <c r="J41" t="n">
-        <v>363.4617848078527</v>
+        <v>363.4617848078526</v>
       </c>
       <c r="K41" t="n">
-        <v>544.7349976789277</v>
+        <v>544.7349976789276</v>
       </c>
       <c r="L41" t="n">
-        <v>675.7919333841761</v>
+        <v>675.7919333841759</v>
       </c>
       <c r="M41" t="n">
-        <v>751.9487370552362</v>
+        <v>751.9487370552361</v>
       </c>
       <c r="N41" t="n">
-        <v>764.1160537589911</v>
+        <v>764.1160537589909</v>
       </c>
       <c r="O41" t="n">
-        <v>721.5331217843454</v>
+        <v>721.5331217843452</v>
       </c>
       <c r="P41" t="n">
-        <v>615.8118261841879</v>
+        <v>615.8118261841878</v>
       </c>
       <c r="Q41" t="n">
-        <v>462.4490353515545</v>
+        <v>462.4490353515544</v>
       </c>
       <c r="R41" t="n">
-        <v>269.0031527997323</v>
+        <v>269.0031527997322</v>
       </c>
       <c r="S41" t="n">
-        <v>97.58477057168965</v>
+        <v>97.58477057168963</v>
       </c>
       <c r="T41" t="n">
         <v>18.74612542743044</v>
       </c>
       <c r="U41" t="n">
-        <v>0.3425905275144339</v>
+        <v>0.3425905275144338</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,34 +34201,34 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.291276151884568</v>
+        <v>2.291276151884567</v>
       </c>
       <c r="H42" t="n">
-        <v>22.12890388793781</v>
+        <v>22.1289038879378</v>
       </c>
       <c r="I42" t="n">
-        <v>78.88823593111343</v>
+        <v>78.88823593111341</v>
       </c>
       <c r="J42" t="n">
-        <v>216.4753490690592</v>
+        <v>216.4753490690591</v>
       </c>
       <c r="K42" t="n">
-        <v>369.9908512453252</v>
+        <v>369.9908512453251</v>
       </c>
       <c r="L42" t="n">
         <v>497.4983592063401</v>
       </c>
       <c r="M42" t="n">
-        <v>580.5571197121556</v>
+        <v>580.5571197121554</v>
       </c>
       <c r="N42" t="n">
-        <v>595.9227391693114</v>
+        <v>595.9227391693113</v>
       </c>
       <c r="O42" t="n">
-        <v>545.1528833828165</v>
+        <v>545.1528833828164</v>
       </c>
       <c r="P42" t="n">
-        <v>437.5332504418874</v>
+        <v>437.5332504418873</v>
       </c>
       <c r="Q42" t="n">
         <v>292.4793908967038</v>
@@ -34240,7 +34240,7 @@
         <v>42.55944957557517</v>
       </c>
       <c r="T42" t="n">
-        <v>9.235450805183849</v>
+        <v>9.235450805183845</v>
       </c>
       <c r="U42" t="n">
         <v>0.150741852097669</v>
@@ -34283,43 +34283,43 @@
         <v>1.920928956785595</v>
       </c>
       <c r="H43" t="n">
-        <v>17.07880472487558</v>
+        <v>17.07880472487557</v>
       </c>
       <c r="I43" t="n">
-        <v>57.76757262769774</v>
+        <v>57.76757262769773</v>
       </c>
       <c r="J43" t="n">
         <v>135.8096772447416</v>
       </c>
       <c r="K43" t="n">
-        <v>223.1770187974537</v>
+        <v>223.1770187974536</v>
       </c>
       <c r="L43" t="n">
-        <v>285.5897469024694</v>
+        <v>285.5897469024693</v>
       </c>
       <c r="M43" t="n">
-        <v>301.1143454714002</v>
+        <v>301.1143454714001</v>
       </c>
       <c r="N43" t="n">
-        <v>293.954519359745</v>
+        <v>293.9545193597449</v>
       </c>
       <c r="O43" t="n">
         <v>271.5145765463859</v>
       </c>
       <c r="P43" t="n">
-        <v>232.3276258279596</v>
+        <v>232.3276258279595</v>
       </c>
       <c r="Q43" t="n">
-        <v>160.8516056450193</v>
+        <v>160.8516056450192</v>
       </c>
       <c r="R43" t="n">
-        <v>86.37195109328684</v>
+        <v>86.37195109328682</v>
       </c>
       <c r="S43" t="n">
         <v>33.47655281961804</v>
       </c>
       <c r="T43" t="n">
-        <v>8.207605542629359</v>
+        <v>8.207605542629357</v>
       </c>
       <c r="U43" t="n">
         <v>0.1047779430973962</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.282381593930425</v>
+        <v>4.282381593930424</v>
       </c>
       <c r="H44" t="n">
-        <v>43.85694049883998</v>
+        <v>43.85694049883996</v>
       </c>
       <c r="I44" t="n">
-        <v>165.0965164000029</v>
+        <v>165.0965164000028</v>
       </c>
       <c r="J44" t="n">
-        <v>363.4617848078527</v>
+        <v>363.4617848078526</v>
       </c>
       <c r="K44" t="n">
-        <v>544.7349976789277</v>
+        <v>544.7349976789276</v>
       </c>
       <c r="L44" t="n">
-        <v>675.7919333841761</v>
+        <v>675.7919333841759</v>
       </c>
       <c r="M44" t="n">
-        <v>751.9487370552362</v>
+        <v>751.9487370552361</v>
       </c>
       <c r="N44" t="n">
-        <v>764.1160537589911</v>
+        <v>764.1160537589909</v>
       </c>
       <c r="O44" t="n">
-        <v>721.5331217843454</v>
+        <v>721.5331217843452</v>
       </c>
       <c r="P44" t="n">
-        <v>615.8118261841879</v>
+        <v>615.8118261841878</v>
       </c>
       <c r="Q44" t="n">
-        <v>462.4490353515545</v>
+        <v>462.4490353515544</v>
       </c>
       <c r="R44" t="n">
-        <v>269.0031527997323</v>
+        <v>269.0031527997322</v>
       </c>
       <c r="S44" t="n">
-        <v>97.58477057168965</v>
+        <v>97.58477057168963</v>
       </c>
       <c r="T44" t="n">
         <v>18.74612542743044</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3425905275144339</v>
+        <v>0.3425905275144338</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,34 +34438,34 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.291276151884568</v>
+        <v>2.291276151884567</v>
       </c>
       <c r="H45" t="n">
-        <v>22.12890388793781</v>
+        <v>22.1289038879378</v>
       </c>
       <c r="I45" t="n">
-        <v>78.88823593111343</v>
+        <v>78.88823593111341</v>
       </c>
       <c r="J45" t="n">
-        <v>216.4753490690592</v>
+        <v>216.4753490690591</v>
       </c>
       <c r="K45" t="n">
-        <v>369.9908512453252</v>
+        <v>369.9908512453251</v>
       </c>
       <c r="L45" t="n">
         <v>497.4983592063401</v>
       </c>
       <c r="M45" t="n">
-        <v>580.5571197121556</v>
+        <v>580.5571197121554</v>
       </c>
       <c r="N45" t="n">
-        <v>595.9227391693114</v>
+        <v>595.9227391693113</v>
       </c>
       <c r="O45" t="n">
-        <v>545.1528833828165</v>
+        <v>545.1528833828164</v>
       </c>
       <c r="P45" t="n">
-        <v>437.5332504418874</v>
+        <v>437.5332504418873</v>
       </c>
       <c r="Q45" t="n">
         <v>292.4793908967038</v>
@@ -34477,7 +34477,7 @@
         <v>42.55944957557517</v>
       </c>
       <c r="T45" t="n">
-        <v>9.235450805183849</v>
+        <v>9.235450805183845</v>
       </c>
       <c r="U45" t="n">
         <v>0.150741852097669</v>
@@ -34520,43 +34520,43 @@
         <v>1.920928956785595</v>
       </c>
       <c r="H46" t="n">
-        <v>17.07880472487558</v>
+        <v>17.07880472487557</v>
       </c>
       <c r="I46" t="n">
-        <v>57.76757262769774</v>
+        <v>57.76757262769773</v>
       </c>
       <c r="J46" t="n">
         <v>135.8096772447416</v>
       </c>
       <c r="K46" t="n">
-        <v>223.1770187974537</v>
+        <v>223.1770187974536</v>
       </c>
       <c r="L46" t="n">
-        <v>285.5897469024694</v>
+        <v>285.5897469024693</v>
       </c>
       <c r="M46" t="n">
-        <v>301.1143454714002</v>
+        <v>301.1143454714001</v>
       </c>
       <c r="N46" t="n">
-        <v>293.954519359745</v>
+        <v>293.9545193597449</v>
       </c>
       <c r="O46" t="n">
         <v>271.5145765463859</v>
       </c>
       <c r="P46" t="n">
-        <v>232.3276258279596</v>
+        <v>232.3276258279595</v>
       </c>
       <c r="Q46" t="n">
-        <v>160.8516056450193</v>
+        <v>160.8516056450192</v>
       </c>
       <c r="R46" t="n">
-        <v>86.37195109328684</v>
+        <v>86.37195109328682</v>
       </c>
       <c r="S46" t="n">
         <v>33.47655281961804</v>
       </c>
       <c r="T46" t="n">
-        <v>8.207605542629359</v>
+        <v>8.207605542629357</v>
       </c>
       <c r="U46" t="n">
         <v>0.1047779430973962</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,13 +35014,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35029,10 +35029,10 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>296.2227415328939</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35257,7 +35257,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>351.5124954532402</v>
+        <v>351.5124954532401</v>
       </c>
       <c r="K11" t="n">
-        <v>648.7905592051119</v>
+        <v>648.7905592051118</v>
       </c>
       <c r="L11" t="n">
-        <v>440.0255184141889</v>
+        <v>530.7276537125106</v>
       </c>
       <c r="M11" t="n">
-        <v>521.6025038279635</v>
+        <v>521.6025038279633</v>
       </c>
       <c r="N11" t="n">
-        <v>625.4051254607209</v>
+        <v>534.7029901624001</v>
       </c>
       <c r="O11" t="n">
-        <v>872.235091625404</v>
+        <v>872.2350916254038</v>
       </c>
       <c r="P11" t="n">
-        <v>706.3775386004011</v>
+        <v>706.3775386004008</v>
       </c>
       <c r="Q11" t="n">
-        <v>452.4583361370097</v>
+        <v>452.4583361370096</v>
       </c>
       <c r="R11" t="n">
-        <v>119.1340348585826</v>
+        <v>119.1340348585825</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>89.63772240239248</v>
+        <v>164.2398203511958</v>
       </c>
       <c r="K12" t="n">
-        <v>232.1494122709662</v>
+        <v>232.1494122709661</v>
       </c>
       <c r="L12" t="n">
         <v>358.9439794264659</v>
       </c>
       <c r="M12" t="n">
-        <v>438.4230857901372</v>
+        <v>438.4230857901371</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5810270859781</v>
+        <v>464.581027085978</v>
       </c>
       <c r="O12" t="n">
-        <v>402.5566389383721</v>
+        <v>402.556638938372</v>
       </c>
       <c r="P12" t="n">
-        <v>303.5588430275572</v>
+        <v>303.5588430275571</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.0997147594846</v>
+        <v>152.4976168106822</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>42.4504971280688</v>
+        <v>42.45049712806878</v>
       </c>
       <c r="K13" t="n">
         <v>200.9075269715708</v>
       </c>
       <c r="L13" t="n">
-        <v>313.1797721627855</v>
+        <v>313.1797721627854</v>
       </c>
       <c r="M13" t="n">
         <v>340.6982224332407</v>
       </c>
       <c r="N13" t="n">
-        <v>338.0866917389736</v>
+        <v>338.0866917389735</v>
       </c>
       <c r="O13" t="n">
-        <v>296.0997044604256</v>
+        <v>296.0997044604255</v>
       </c>
       <c r="P13" t="n">
-        <v>229.6061850928531</v>
+        <v>229.606185092853</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.68956239332489</v>
+        <v>74.68956239332486</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>351.5124954532402</v>
+        <v>351.5124954532401</v>
       </c>
       <c r="K14" t="n">
-        <v>648.7905592051119</v>
+        <v>648.7905592051118</v>
       </c>
       <c r="L14" t="n">
-        <v>857.6867329646393</v>
+        <v>857.6867329646391</v>
       </c>
       <c r="M14" t="n">
-        <v>521.6025038279635</v>
+        <v>521.6025038279633</v>
       </c>
       <c r="N14" t="n">
-        <v>741.8576097416582</v>
+        <v>741.8576097416586</v>
       </c>
       <c r="O14" t="n">
-        <v>872.235091625404</v>
+        <v>872.2350916254038</v>
       </c>
       <c r="P14" t="n">
-        <v>384.5788304289184</v>
+        <v>384.5788304289183</v>
       </c>
       <c r="Q14" t="n">
-        <v>240.143345477105</v>
+        <v>240.1433454771049</v>
       </c>
       <c r="R14" t="n">
-        <v>119.1340348585826</v>
+        <v>119.1340348585825</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>164.2398203511949</v>
+        <v>164.2398203511958</v>
       </c>
       <c r="K15" t="n">
-        <v>232.1494122709662</v>
+        <v>232.1494122709661</v>
       </c>
       <c r="L15" t="n">
         <v>358.9439794264659</v>
       </c>
       <c r="M15" t="n">
-        <v>438.4230857901372</v>
+        <v>438.4230857901371</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5810270859781</v>
+        <v>464.581027085978</v>
       </c>
       <c r="O15" t="n">
-        <v>402.5566389383721</v>
+        <v>402.556638938372</v>
       </c>
       <c r="P15" t="n">
-        <v>303.5588430275572</v>
+        <v>303.5588430275571</v>
       </c>
       <c r="Q15" t="n">
-        <v>152.4976168106823</v>
+        <v>152.4976168106822</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>42.4504971280688</v>
+        <v>42.45049712806878</v>
       </c>
       <c r="K16" t="n">
         <v>200.9075269715708</v>
       </c>
       <c r="L16" t="n">
-        <v>313.1797721627855</v>
+        <v>313.1797721627854</v>
       </c>
       <c r="M16" t="n">
         <v>340.6982224332407</v>
       </c>
       <c r="N16" t="n">
-        <v>338.0866917389736</v>
+        <v>338.0866917389735</v>
       </c>
       <c r="O16" t="n">
-        <v>296.0997044604256</v>
+        <v>296.0997044604255</v>
       </c>
       <c r="P16" t="n">
-        <v>229.6061850928531</v>
+        <v>229.606185092853</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.68956239332489</v>
+        <v>74.68956239332486</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>351.5124954532402</v>
+        <v>182.4158802811663</v>
       </c>
       <c r="K17" t="n">
-        <v>349.8849021422984</v>
+        <v>324.645146633947</v>
       </c>
       <c r="L17" t="n">
-        <v>857.6867329646393</v>
+        <v>736.9393422553021</v>
       </c>
       <c r="M17" t="n">
-        <v>971.116037320796</v>
+        <v>971.1160373207958</v>
       </c>
       <c r="N17" t="n">
-        <v>972.0499145743844</v>
+        <v>972.0499145743842</v>
       </c>
       <c r="O17" t="n">
-        <v>491.4349103626587</v>
+        <v>872.2350916254038</v>
       </c>
       <c r="P17" t="n">
-        <v>384.5788304289184</v>
+        <v>384.5788304289183</v>
       </c>
       <c r="Q17" t="n">
-        <v>240.143345477105</v>
+        <v>240.1433454771049</v>
       </c>
       <c r="R17" t="n">
-        <v>119.1340348585826</v>
+        <v>53.4176149856001</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>164.2398203511949</v>
+        <v>164.2398203511958</v>
       </c>
       <c r="K18" t="n">
-        <v>232.1494122709662</v>
+        <v>232.1494122709661</v>
       </c>
       <c r="L18" t="n">
         <v>358.9439794264659</v>
       </c>
       <c r="M18" t="n">
-        <v>438.4230857901372</v>
+        <v>438.4230857901371</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5810270859781</v>
+        <v>464.581027085978</v>
       </c>
       <c r="O18" t="n">
-        <v>402.5566389383721</v>
+        <v>402.556638938372</v>
       </c>
       <c r="P18" t="n">
-        <v>303.5588430275572</v>
+        <v>303.5588430275571</v>
       </c>
       <c r="Q18" t="n">
-        <v>152.4976168106823</v>
+        <v>152.4976168106822</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>42.4504971280688</v>
+        <v>42.45049712806878</v>
       </c>
       <c r="K19" t="n">
         <v>200.9075269715708</v>
       </c>
       <c r="L19" t="n">
-        <v>313.1797721627855</v>
+        <v>313.1797721627854</v>
       </c>
       <c r="M19" t="n">
         <v>340.6982224332407</v>
       </c>
       <c r="N19" t="n">
-        <v>338.0866917389736</v>
+        <v>338.0866917389735</v>
       </c>
       <c r="O19" t="n">
-        <v>296.0997044604256</v>
+        <v>296.0997044604255</v>
       </c>
       <c r="P19" t="n">
-        <v>229.6061850928531</v>
+        <v>229.606185092853</v>
       </c>
       <c r="Q19" t="n">
-        <v>74.68956239332489</v>
+        <v>74.68956239332486</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>182.4158802811664</v>
+        <v>351.5124954532401</v>
       </c>
       <c r="K20" t="n">
-        <v>648.7905592051119</v>
+        <v>648.7905592051118</v>
       </c>
       <c r="L20" t="n">
-        <v>857.6867329646393</v>
+        <v>530.7276537125106</v>
       </c>
       <c r="M20" t="n">
-        <v>521.6025038279635</v>
+        <v>521.6025038279633</v>
       </c>
       <c r="N20" t="n">
-        <v>972.0499145743844</v>
+        <v>534.7029901624001</v>
       </c>
       <c r="O20" t="n">
-        <v>872.235091625404</v>
+        <v>872.2350916254038</v>
       </c>
       <c r="P20" t="n">
-        <v>384.5788304289184</v>
+        <v>706.3775386004008</v>
       </c>
       <c r="Q20" t="n">
-        <v>244.764075689435</v>
+        <v>452.4583361370096</v>
       </c>
       <c r="R20" t="n">
-        <v>53.41761498560015</v>
+        <v>119.1340348585825</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>164.2398203511949</v>
+        <v>89.63772240239243</v>
       </c>
       <c r="K21" t="n">
-        <v>232.1494122709662</v>
+        <v>306.7515102197696</v>
       </c>
       <c r="L21" t="n">
         <v>358.9439794264659</v>
       </c>
       <c r="M21" t="n">
-        <v>438.4230857901372</v>
+        <v>438.4230857901371</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5810270859781</v>
+        <v>464.581027085978</v>
       </c>
       <c r="O21" t="n">
-        <v>402.5566389383721</v>
+        <v>402.556638938372</v>
       </c>
       <c r="P21" t="n">
-        <v>303.5588430275572</v>
+        <v>303.5588430275571</v>
       </c>
       <c r="Q21" t="n">
-        <v>152.4976168106823</v>
+        <v>152.4976168106822</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>42.4504971280688</v>
+        <v>42.45049712806878</v>
       </c>
       <c r="K22" t="n">
         <v>200.9075269715708</v>
       </c>
       <c r="L22" t="n">
-        <v>313.1797721627855</v>
+        <v>313.1797721627854</v>
       </c>
       <c r="M22" t="n">
         <v>340.6982224332407</v>
       </c>
       <c r="N22" t="n">
-        <v>338.0866917389736</v>
+        <v>338.0866917389735</v>
       </c>
       <c r="O22" t="n">
-        <v>296.0997044604256</v>
+        <v>296.0997044604255</v>
       </c>
       <c r="P22" t="n">
-        <v>229.6061850928531</v>
+        <v>229.606185092853</v>
       </c>
       <c r="Q22" t="n">
-        <v>74.68956239332489</v>
+        <v>74.68956239332486</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>182.4158802811664</v>
+        <v>182.4158802811663</v>
       </c>
       <c r="K23" t="n">
-        <v>324.6451466339471</v>
+        <v>324.645146633947</v>
       </c>
       <c r="L23" t="n">
-        <v>857.6867329646393</v>
+        <v>857.6867329646391</v>
       </c>
       <c r="M23" t="n">
-        <v>971.116037320796</v>
+        <v>971.1160373207958</v>
       </c>
       <c r="N23" t="n">
-        <v>972.0499145743844</v>
+        <v>972.0499145743842</v>
       </c>
       <c r="O23" t="n">
-        <v>751.487700916066</v>
+        <v>751.4877009160666</v>
       </c>
       <c r="P23" t="n">
-        <v>384.5788304289184</v>
+        <v>384.5788304289183</v>
       </c>
       <c r="Q23" t="n">
-        <v>240.143345477105</v>
+        <v>240.1433454771049</v>
       </c>
       <c r="R23" t="n">
-        <v>53.41761498560015</v>
+        <v>53.4176149856001</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>164.2398203511949</v>
+        <v>89.63772240239243</v>
       </c>
       <c r="K24" t="n">
-        <v>232.1494122709662</v>
+        <v>232.1494122709661</v>
       </c>
       <c r="L24" t="n">
         <v>358.9439794264659</v>
       </c>
       <c r="M24" t="n">
-        <v>438.4230857901372</v>
+        <v>438.4230857901371</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5810270859781</v>
+        <v>464.581027085978</v>
       </c>
       <c r="O24" t="n">
-        <v>402.5566389383721</v>
+        <v>402.556638938372</v>
       </c>
       <c r="P24" t="n">
-        <v>303.5588430275572</v>
+        <v>378.1609409763607</v>
       </c>
       <c r="Q24" t="n">
-        <v>152.4976168106823</v>
+        <v>152.4976168106822</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>42.4504971280688</v>
+        <v>42.45049712806878</v>
       </c>
       <c r="K25" t="n">
         <v>200.9075269715708</v>
       </c>
       <c r="L25" t="n">
-        <v>313.1797721627855</v>
+        <v>313.1797721627854</v>
       </c>
       <c r="M25" t="n">
         <v>340.6982224332407</v>
       </c>
       <c r="N25" t="n">
-        <v>338.0866917389736</v>
+        <v>338.0866917389735</v>
       </c>
       <c r="O25" t="n">
-        <v>296.0997044604256</v>
+        <v>296.0997044604255</v>
       </c>
       <c r="P25" t="n">
-        <v>229.6061850928531</v>
+        <v>229.606185092853</v>
       </c>
       <c r="Q25" t="n">
-        <v>74.68956239332489</v>
+        <v>74.68956239332486</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>182.4158802811664</v>
+        <v>351.5124954532401</v>
       </c>
       <c r="K26" t="n">
-        <v>324.6451466339471</v>
+        <v>648.7905592051118</v>
       </c>
       <c r="L26" t="n">
-        <v>857.6867329646393</v>
+        <v>530.7276537125106</v>
       </c>
       <c r="M26" t="n">
-        <v>971.116037320796</v>
+        <v>521.6025038279633</v>
       </c>
       <c r="N26" t="n">
-        <v>972.0499145743844</v>
+        <v>534.7029901624001</v>
       </c>
       <c r="O26" t="n">
-        <v>751.487700916066</v>
+        <v>872.2350916254038</v>
       </c>
       <c r="P26" t="n">
-        <v>384.5788304289184</v>
+        <v>706.3775386004008</v>
       </c>
       <c r="Q26" t="n">
-        <v>240.143345477105</v>
+        <v>452.4583361370096</v>
       </c>
       <c r="R26" t="n">
-        <v>53.41761498560015</v>
+        <v>119.1340348585825</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>164.2398203511949</v>
+        <v>122.1375439508648</v>
       </c>
       <c r="K27" t="n">
-        <v>232.1494122709662</v>
+        <v>232.1494122709661</v>
       </c>
       <c r="L27" t="n">
         <v>358.9439794264659</v>
       </c>
       <c r="M27" t="n">
-        <v>438.4230857901372</v>
+        <v>438.4230857901371</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5810270859781</v>
+        <v>464.581027085978</v>
       </c>
       <c r="O27" t="n">
-        <v>402.5566389383721</v>
+        <v>402.556638938372</v>
       </c>
       <c r="P27" t="n">
-        <v>303.5588430275572</v>
+        <v>303.5588430275571</v>
       </c>
       <c r="Q27" t="n">
-        <v>152.4976168106823</v>
+        <v>152.4976168106822</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>42.10227640033035</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>42.4504971280688</v>
+        <v>42.45049712806878</v>
       </c>
       <c r="K28" t="n">
         <v>200.9075269715708</v>
       </c>
       <c r="L28" t="n">
-        <v>313.1797721627855</v>
+        <v>313.1797721627854</v>
       </c>
       <c r="M28" t="n">
         <v>340.6982224332407</v>
       </c>
       <c r="N28" t="n">
-        <v>338.0866917389736</v>
+        <v>338.0866917389735</v>
       </c>
       <c r="O28" t="n">
-        <v>296.0997044604256</v>
+        <v>296.0997044604255</v>
       </c>
       <c r="P28" t="n">
-        <v>229.6061850928531</v>
+        <v>229.606185092853</v>
       </c>
       <c r="Q28" t="n">
-        <v>74.68956239332489</v>
+        <v>74.68956239332486</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>182.4158802811664</v>
+        <v>351.5124954532401</v>
       </c>
       <c r="K29" t="n">
-        <v>324.6451466339471</v>
+        <v>648.7905592051118</v>
       </c>
       <c r="L29" t="n">
-        <v>857.6867329646393</v>
+        <v>530.7276537125106</v>
       </c>
       <c r="M29" t="n">
-        <v>971.116037320796</v>
+        <v>521.6025038279633</v>
       </c>
       <c r="N29" t="n">
-        <v>972.0499145743844</v>
+        <v>534.7029901624001</v>
       </c>
       <c r="O29" t="n">
-        <v>751.487700916066</v>
+        <v>872.2350916254038</v>
       </c>
       <c r="P29" t="n">
-        <v>384.5788304289184</v>
+        <v>706.3775386004008</v>
       </c>
       <c r="Q29" t="n">
-        <v>240.143345477105</v>
+        <v>452.4583361370096</v>
       </c>
       <c r="R29" t="n">
-        <v>53.41761498560015</v>
+        <v>119.1340348585825</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>89.63772240239248</v>
+        <v>122.1375439508648</v>
       </c>
       <c r="K30" t="n">
-        <v>232.1494122709662</v>
+        <v>232.1494122709661</v>
       </c>
       <c r="L30" t="n">
         <v>358.9439794264659</v>
       </c>
       <c r="M30" t="n">
-        <v>438.4230857901372</v>
+        <v>438.4230857901371</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5810270859781</v>
+        <v>464.581027085978</v>
       </c>
       <c r="O30" t="n">
-        <v>402.5566389383721</v>
+        <v>402.556638938372</v>
       </c>
       <c r="P30" t="n">
-        <v>303.5588430275572</v>
+        <v>303.5588430275571</v>
       </c>
       <c r="Q30" t="n">
-        <v>184.997438359154</v>
+        <v>152.4976168106822</v>
       </c>
       <c r="R30" t="n">
-        <v>42.10227640033038</v>
+        <v>42.10227640033035</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>42.4504971280688</v>
+        <v>42.45049712806878</v>
       </c>
       <c r="K31" t="n">
         <v>200.9075269715708</v>
       </c>
       <c r="L31" t="n">
-        <v>313.1797721627855</v>
+        <v>313.1797721627854</v>
       </c>
       <c r="M31" t="n">
         <v>340.6982224332407</v>
       </c>
       <c r="N31" t="n">
-        <v>338.0866917389736</v>
+        <v>338.0866917389735</v>
       </c>
       <c r="O31" t="n">
-        <v>296.0997044604256</v>
+        <v>296.0997044604255</v>
       </c>
       <c r="P31" t="n">
-        <v>229.6061850928531</v>
+        <v>229.606185092853</v>
       </c>
       <c r="Q31" t="n">
-        <v>74.68956239332489</v>
+        <v>74.68956239332486</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>182.4158802811664</v>
+        <v>182.4158802811663</v>
       </c>
       <c r="K32" t="n">
-        <v>324.6451466339471</v>
+        <v>324.645146633947</v>
       </c>
       <c r="L32" t="n">
-        <v>736.9393422553014</v>
+        <v>736.9393422553021</v>
       </c>
       <c r="M32" t="n">
-        <v>971.116037320796</v>
+        <v>971.1160373207958</v>
       </c>
       <c r="N32" t="n">
-        <v>972.0499145743844</v>
+        <v>972.0499145743842</v>
       </c>
       <c r="O32" t="n">
-        <v>872.235091625404</v>
+        <v>872.2350916254038</v>
       </c>
       <c r="P32" t="n">
-        <v>384.5788304289184</v>
+        <v>384.5788304289183</v>
       </c>
       <c r="Q32" t="n">
-        <v>240.143345477105</v>
+        <v>240.1433454771049</v>
       </c>
       <c r="R32" t="n">
-        <v>53.41761498560015</v>
+        <v>53.4176149856001</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>89.63772240239248</v>
+        <v>89.63772240239243</v>
       </c>
       <c r="K33" t="n">
-        <v>232.1494122709662</v>
+        <v>232.1494122709661</v>
       </c>
       <c r="L33" t="n">
         <v>358.9439794264659</v>
       </c>
       <c r="M33" t="n">
-        <v>438.4230857901372</v>
+        <v>438.4230857901371</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5810270859781</v>
+        <v>464.581027085978</v>
       </c>
       <c r="O33" t="n">
-        <v>477.1587368871745</v>
+        <v>402.556638938372</v>
       </c>
       <c r="P33" t="n">
-        <v>303.5588430275572</v>
+        <v>303.5588430275571</v>
       </c>
       <c r="Q33" t="n">
-        <v>152.4976168106823</v>
+        <v>227.0997147594859</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>42.4504971280688</v>
+        <v>42.45049712806878</v>
       </c>
       <c r="K34" t="n">
         <v>200.9075269715708</v>
       </c>
       <c r="L34" t="n">
-        <v>313.1797721627855</v>
+        <v>313.1797721627854</v>
       </c>
       <c r="M34" t="n">
         <v>340.6982224332407</v>
       </c>
       <c r="N34" t="n">
-        <v>338.0866917389736</v>
+        <v>338.0866917389735</v>
       </c>
       <c r="O34" t="n">
-        <v>296.0997044604256</v>
+        <v>296.0997044604255</v>
       </c>
       <c r="P34" t="n">
-        <v>229.6061850928531</v>
+        <v>229.606185092853</v>
       </c>
       <c r="Q34" t="n">
-        <v>74.68956239332489</v>
+        <v>74.68956239332486</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>351.5124954532402</v>
+        <v>351.5124954532401</v>
       </c>
       <c r="K35" t="n">
-        <v>324.6451466339471</v>
+        <v>648.7905592051118</v>
       </c>
       <c r="L35" t="n">
-        <v>857.6867329646393</v>
+        <v>440.0255184141886</v>
       </c>
       <c r="M35" t="n">
-        <v>521.6025038279635</v>
+        <v>521.6025038279633</v>
       </c>
       <c r="N35" t="n">
-        <v>972.0499145743844</v>
+        <v>625.405125460722</v>
       </c>
       <c r="O35" t="n">
-        <v>872.235091625404</v>
+        <v>872.2350916254038</v>
       </c>
       <c r="P35" t="n">
-        <v>384.5788304289184</v>
+        <v>706.3775386004008</v>
       </c>
       <c r="Q35" t="n">
-        <v>334.0964532155441</v>
+        <v>452.4583361370096</v>
       </c>
       <c r="R35" t="n">
-        <v>119.1340348585826</v>
+        <v>119.1340348585825</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>122.1375439508639</v>
+        <v>89.63772240239243</v>
       </c>
       <c r="K36" t="n">
-        <v>232.1494122709662</v>
+        <v>232.1494122709661</v>
       </c>
       <c r="L36" t="n">
         <v>358.9439794264659</v>
       </c>
       <c r="M36" t="n">
-        <v>438.4230857901372</v>
+        <v>438.4230857901371</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5810270859781</v>
+        <v>464.581027085978</v>
       </c>
       <c r="O36" t="n">
-        <v>402.5566389383721</v>
+        <v>402.556638938372</v>
       </c>
       <c r="P36" t="n">
-        <v>303.5588430275572</v>
+        <v>303.5588430275571</v>
       </c>
       <c r="Q36" t="n">
-        <v>152.4976168106823</v>
+        <v>227.0997147594859</v>
       </c>
       <c r="R36" t="n">
-        <v>42.10227640033038</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>42.4504971280688</v>
+        <v>42.45049712806878</v>
       </c>
       <c r="K37" t="n">
         <v>200.9075269715708</v>
       </c>
       <c r="L37" t="n">
-        <v>313.1797721627855</v>
+        <v>313.1797721627854</v>
       </c>
       <c r="M37" t="n">
         <v>340.6982224332407</v>
       </c>
       <c r="N37" t="n">
-        <v>338.0866917389736</v>
+        <v>338.0866917389735</v>
       </c>
       <c r="O37" t="n">
-        <v>296.0997044604256</v>
+        <v>296.0997044604255</v>
       </c>
       <c r="P37" t="n">
-        <v>229.6061850928531</v>
+        <v>229.606185092853</v>
       </c>
       <c r="Q37" t="n">
-        <v>74.68956239332489</v>
+        <v>74.68956239332486</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>182.4158802811664</v>
+        <v>351.5124954532401</v>
       </c>
       <c r="K38" t="n">
-        <v>648.7905592051119</v>
+        <v>324.645146633947</v>
       </c>
       <c r="L38" t="n">
-        <v>857.6867329646393</v>
+        <v>440.0255184141886</v>
       </c>
       <c r="M38" t="n">
-        <v>521.6025038279635</v>
+        <v>521.6025038279633</v>
       </c>
       <c r="N38" t="n">
-        <v>972.0499145743844</v>
+        <v>949.5505380318867</v>
       </c>
       <c r="O38" t="n">
-        <v>872.235091625404</v>
+        <v>872.2350916254038</v>
       </c>
       <c r="P38" t="n">
-        <v>389.199560641248</v>
+        <v>706.3775386004008</v>
       </c>
       <c r="Q38" t="n">
-        <v>240.143345477105</v>
+        <v>452.4583361370096</v>
       </c>
       <c r="R38" t="n">
-        <v>53.41761498560015</v>
+        <v>119.1340348585825</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>164.2398203511949</v>
+        <v>122.1375439508648</v>
       </c>
       <c r="K39" t="n">
-        <v>232.1494122709662</v>
+        <v>232.1494122709661</v>
       </c>
       <c r="L39" t="n">
         <v>358.9439794264659</v>
       </c>
       <c r="M39" t="n">
-        <v>438.4230857901372</v>
+        <v>438.4230857901371</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5810270859781</v>
+        <v>464.581027085978</v>
       </c>
       <c r="O39" t="n">
-        <v>402.5566389383721</v>
+        <v>402.556638938372</v>
       </c>
       <c r="P39" t="n">
-        <v>303.5588430275572</v>
+        <v>303.5588430275571</v>
       </c>
       <c r="Q39" t="n">
-        <v>152.4976168106823</v>
+        <v>152.4976168106822</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>42.10227640033035</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>42.4504971280688</v>
+        <v>42.45049712806878</v>
       </c>
       <c r="K40" t="n">
         <v>200.9075269715708</v>
       </c>
       <c r="L40" t="n">
-        <v>313.1797721627855</v>
+        <v>313.1797721627854</v>
       </c>
       <c r="M40" t="n">
         <v>340.6982224332407</v>
       </c>
       <c r="N40" t="n">
-        <v>338.0866917389736</v>
+        <v>338.0866917389735</v>
       </c>
       <c r="O40" t="n">
-        <v>296.0997044604256</v>
+        <v>296.0997044604255</v>
       </c>
       <c r="P40" t="n">
-        <v>229.6061850928531</v>
+        <v>229.606185092853</v>
       </c>
       <c r="Q40" t="n">
-        <v>74.68956239332489</v>
+        <v>74.68956239332486</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>182.4158802811664</v>
+        <v>351.5124954532401</v>
       </c>
       <c r="K41" t="n">
-        <v>324.6451466339471</v>
+        <v>324.645146633947</v>
       </c>
       <c r="L41" t="n">
-        <v>857.6867329646393</v>
+        <v>670.611497813086</v>
       </c>
       <c r="M41" t="n">
-        <v>971.116037320796</v>
+        <v>971.1160373207958</v>
       </c>
       <c r="N41" t="n">
-        <v>972.0499145743844</v>
+        <v>972.0499145743842</v>
       </c>
       <c r="O41" t="n">
-        <v>751.487700916066</v>
+        <v>491.4349103626585</v>
       </c>
       <c r="P41" t="n">
-        <v>384.5788304289184</v>
+        <v>384.5788304289183</v>
       </c>
       <c r="Q41" t="n">
-        <v>240.143345477105</v>
+        <v>452.4583361370096</v>
       </c>
       <c r="R41" t="n">
-        <v>53.41761498560015</v>
+        <v>119.1340348585825</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>89.63772240239248</v>
+        <v>122.1375439508648</v>
       </c>
       <c r="K42" t="n">
-        <v>232.1494122709662</v>
+        <v>232.1494122709661</v>
       </c>
       <c r="L42" t="n">
         <v>358.9439794264659</v>
       </c>
       <c r="M42" t="n">
-        <v>438.4230857901372</v>
+        <v>438.4230857901371</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5810270859781</v>
+        <v>464.581027085978</v>
       </c>
       <c r="O42" t="n">
-        <v>402.5566389383721</v>
+        <v>402.556638938372</v>
       </c>
       <c r="P42" t="n">
-        <v>378.1609409763598</v>
+        <v>303.5588430275571</v>
       </c>
       <c r="Q42" t="n">
-        <v>152.4976168106823</v>
+        <v>152.4976168106822</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>42.10227640033035</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>42.4504971280688</v>
+        <v>42.45049712806878</v>
       </c>
       <c r="K43" t="n">
         <v>200.9075269715708</v>
       </c>
       <c r="L43" t="n">
-        <v>313.1797721627855</v>
+        <v>313.1797721627854</v>
       </c>
       <c r="M43" t="n">
         <v>340.6982224332407</v>
       </c>
       <c r="N43" t="n">
-        <v>338.0866917389736</v>
+        <v>338.0866917389735</v>
       </c>
       <c r="O43" t="n">
-        <v>296.0997044604256</v>
+        <v>296.0997044604255</v>
       </c>
       <c r="P43" t="n">
-        <v>229.6061850928531</v>
+        <v>229.606185092853</v>
       </c>
       <c r="Q43" t="n">
-        <v>74.68956239332489</v>
+        <v>74.68956239332486</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>182.4158802811664</v>
+        <v>182.4158802811663</v>
       </c>
       <c r="K44" t="n">
-        <v>324.6451466339471</v>
+        <v>584.6979371873555</v>
       </c>
       <c r="L44" t="n">
-        <v>736.9393422553014</v>
+        <v>857.6867329646391</v>
       </c>
       <c r="M44" t="n">
-        <v>971.116037320796</v>
+        <v>971.1160373207958</v>
       </c>
       <c r="N44" t="n">
-        <v>972.0499145743844</v>
+        <v>972.0499145743842</v>
       </c>
       <c r="O44" t="n">
-        <v>872.235091625404</v>
+        <v>491.4349103626585</v>
       </c>
       <c r="P44" t="n">
-        <v>384.5788304289184</v>
+        <v>384.5788304289183</v>
       </c>
       <c r="Q44" t="n">
-        <v>240.143345477105</v>
+        <v>240.1433454771049</v>
       </c>
       <c r="R44" t="n">
-        <v>53.41761498560015</v>
+        <v>53.4176149856001</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>89.63772240239248</v>
+        <v>122.1375439508648</v>
       </c>
       <c r="K45" t="n">
-        <v>232.1494122709662</v>
+        <v>232.1494122709661</v>
       </c>
       <c r="L45" t="n">
         <v>358.9439794264659</v>
       </c>
       <c r="M45" t="n">
-        <v>438.4230857901372</v>
+        <v>438.4230857901371</v>
       </c>
       <c r="N45" t="n">
-        <v>539.1831250347803</v>
+        <v>464.581027085978</v>
       </c>
       <c r="O45" t="n">
-        <v>402.5566389383721</v>
+        <v>402.556638938372</v>
       </c>
       <c r="P45" t="n">
-        <v>303.5588430275572</v>
+        <v>303.5588430275571</v>
       </c>
       <c r="Q45" t="n">
-        <v>152.4976168106823</v>
+        <v>152.4976168106822</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>42.10227640033035</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>42.4504971280688</v>
+        <v>42.45049712806878</v>
       </c>
       <c r="K46" t="n">
         <v>200.9075269715708</v>
       </c>
       <c r="L46" t="n">
-        <v>313.1797721627855</v>
+        <v>313.1797721627854</v>
       </c>
       <c r="M46" t="n">
         <v>340.6982224332407</v>
       </c>
       <c r="N46" t="n">
-        <v>338.0866917389736</v>
+        <v>338.0866917389735</v>
       </c>
       <c r="O46" t="n">
-        <v>296.0997044604256</v>
+        <v>296.0997044604255</v>
       </c>
       <c r="P46" t="n">
-        <v>229.6061850928531</v>
+        <v>229.606185092853</v>
       </c>
       <c r="Q46" t="n">
-        <v>74.68956239332489</v>
+        <v>74.68956239332486</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
